--- a/Seek and Destroy - Projeto de Testes.xlsx
+++ b/Seek and Destroy - Projeto de Testes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="576" windowWidth="16956" windowHeight="6828" activeTab="1"/>
+    <workbookView xWindow="135" yWindow="570" windowWidth="16950" windowHeight="6825" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="363">
   <si>
     <t>Projeto de Teste</t>
   </si>
@@ -1121,6 +1121,27 @@
   </si>
   <si>
     <t>Resultados dos CT033 a CT044</t>
+  </si>
+  <si>
+    <t>Avança para a opção de alteração de nome.</t>
+  </si>
+  <si>
+    <t>Alteração realizada com sucesso</t>
+  </si>
+  <si>
+    <t>Exclusão realizada com sucesso</t>
+  </si>
+  <si>
+    <t>Ao selecionar a opção Excluir o titulo da tela aparece como "Excluir" e acima da ComboBox aparece "Escolha uma Opção", onde as opções são os nomes de jogos já cadastrados</t>
+  </si>
+  <si>
+    <t>Exibe mensagem de erro</t>
+  </si>
+  <si>
+    <t>Na opção de Busca é disponibilizada uma ComboBox com os jogos cadastrados.</t>
+  </si>
+  <si>
+    <t>Cadastra normalmente</t>
   </si>
 </sst>
 </file>
@@ -1758,21 +1779,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1783,44 +1827,24 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1828,30 +1852,17 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1861,10 +1872,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1873,23 +1897,20 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3256,9 +3277,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="10" width="11.44140625" customWidth="1"/>
+    <col min="1" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="12.75" customHeight="1"/>
@@ -3651,23 +3672,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.44140625" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="12.75" customHeight="1"/>
     <row r="2" spans="2:4" ht="12.75" customHeight="1"/>
     <row r="3" spans="2:4" ht="12.75" customHeight="1"/>
-    <row r="4" spans="2:4" ht="13.8" customHeight="1"/>
-    <row r="5" spans="2:4" ht="29.4" customHeight="1">
+    <row r="4" spans="2:4" ht="13.9" customHeight="1"/>
+    <row r="5" spans="2:4" ht="29.45" customHeight="1">
       <c r="B5" s="81" t="s">
         <v>298</v>
       </c>
@@ -3788,23 +3809,23 @@
       <selection pane="bottomRight" activeCell="D89" sqref="D89:D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
     <col min="17" max="23" width="4" customWidth="1"/>
   </cols>
@@ -3813,15 +3834,15 @@
       <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="94" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="92" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="79"/>
@@ -3829,8 +3850,8 @@
       <c r="I1" s="79"/>
       <c r="J1" s="79"/>
       <c r="K1" s="79"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="90" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="97" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="79"/>
@@ -3848,35 +3869,35 @@
       <c r="A2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="99"/>
+      <c r="B2" s="91"/>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="88" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="79"/>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
       <c r="Q2" s="24"/>
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
@@ -3886,10 +3907,10 @@
       <c r="W2" s="26"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="98"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
@@ -3997,33 +4018,33 @@
       <c r="V6" s="39"/>
       <c r="W6" s="39"/>
     </row>
-    <row r="7" spans="1:23" ht="31.8" customHeight="1">
+    <row r="7" spans="1:23" ht="31.9" customHeight="1">
       <c r="A7" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
@@ -4111,33 +4132,33 @@
       <c r="A11" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="83" t="s">
+      <c r="M11" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
       <c r="Q11" s="42"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
@@ -4225,33 +4246,33 @@
       <c r="A15" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="83" t="s">
+      <c r="M15" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
       <c r="Q15" s="42"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
@@ -4339,33 +4360,33 @@
       <c r="A19" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="F19" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
       <c r="L19" s="40"/>
-      <c r="M19" s="83" t="s">
+      <c r="M19" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
       <c r="Q19" s="42"/>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
@@ -4453,33 +4474,33 @@
       <c r="A23" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="86" t="s">
+      <c r="E23" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="83" t="s">
+      <c r="F23" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
       <c r="L23" s="40"/>
-      <c r="M23" s="83" t="s">
+      <c r="M23" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
       <c r="Q23" s="42"/>
       <c r="R23" s="46"/>
       <c r="S23" s="46"/>
@@ -4567,33 +4588,33 @@
       <c r="A27" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="86" t="s">
+      <c r="E27" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="F27" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="83" t="s">
+      <c r="M27" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="46"/>
       <c r="S27" s="46"/>
@@ -4681,33 +4702,33 @@
       <c r="A31" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="86" t="s">
+      <c r="E31" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83" t="s">
+      <c r="F31" s="84"/>
+      <c r="G31" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
       <c r="L31" s="40"/>
-      <c r="M31" s="83" t="s">
+      <c r="M31" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="46"/>
       <c r="S31" s="46"/>
@@ -4795,35 +4816,35 @@
       <c r="A35" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="86" t="s">
+      <c r="D35" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="86" t="s">
+      <c r="E35" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="83" t="s">
+      <c r="G35" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
       <c r="L35" s="40"/>
-      <c r="M35" s="83" t="s">
+      <c r="M35" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
       <c r="Q35" s="42"/>
       <c r="R35" s="46"/>
       <c r="S35" s="46"/>
@@ -4911,35 +4932,35 @@
       <c r="A39" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="86" t="s">
+      <c r="E39" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="83" t="s">
+      <c r="F39" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="83" t="s">
+      <c r="G39" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
       <c r="L39" s="40"/>
-      <c r="M39" s="83" t="s">
+      <c r="M39" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
       <c r="Q39" s="42"/>
       <c r="R39" s="46"/>
       <c r="S39" s="46"/>
@@ -5027,35 +5048,35 @@
       <c r="A43" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="86" t="s">
+      <c r="E43" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="83" t="s">
+      <c r="F43" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="83" t="s">
+      <c r="G43" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
       <c r="L43" s="40"/>
-      <c r="M43" s="83" t="s">
+      <c r="M43" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
       <c r="Q43" s="42"/>
       <c r="R43" s="46"/>
       <c r="S43" s="46"/>
@@ -5143,33 +5164,33 @@
       <c r="A47" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="86" t="s">
+      <c r="D47" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="86" t="s">
+      <c r="E47" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83" t="s">
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
       <c r="L47" s="40"/>
-      <c r="M47" s="83" t="s">
+      <c r="M47" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
       <c r="Q47" s="42"/>
       <c r="R47" s="46"/>
       <c r="S47" s="46"/>
@@ -5257,33 +5278,33 @@
       <c r="A51" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="86" t="s">
+      <c r="D51" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="86" t="s">
+      <c r="E51" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83" t="s">
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
       <c r="L51" s="40"/>
-      <c r="M51" s="83" t="s">
+      <c r="M51" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
       <c r="Q51" s="42"/>
       <c r="R51" s="46"/>
       <c r="S51" s="46"/>
@@ -5371,33 +5392,33 @@
       <c r="A55" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="86" t="s">
+      <c r="D55" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="E55" s="86" t="s">
+      <c r="E55" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83" t="s">
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
       <c r="L55" s="40"/>
-      <c r="M55" s="83" t="s">
+      <c r="M55" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
       <c r="Q55" s="42"/>
       <c r="R55" s="46"/>
       <c r="S55" s="46"/>
@@ -5485,33 +5506,33 @@
       <c r="A59" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="88" t="s">
+      <c r="B59" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="88" t="s">
+      <c r="C59" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="86" t="s">
+      <c r="D59" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="86" t="s">
+      <c r="E59" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83" t="s">
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
       <c r="L59" s="40"/>
-      <c r="M59" s="83" t="s">
+      <c r="M59" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
       <c r="Q59" s="42"/>
       <c r="R59" s="46"/>
       <c r="S59" s="46"/>
@@ -5649,33 +5670,33 @@
       <c r="A65" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="86" t="s">
+      <c r="B65" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="86" t="s">
+      <c r="D65" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="86" t="s">
+      <c r="E65" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83" t="s">
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="83"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
       <c r="L65" s="40"/>
-      <c r="M65" s="83" t="s">
+      <c r="M65" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="N65" s="83"/>
-      <c r="O65" s="83"/>
-      <c r="P65" s="83"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
       <c r="Q65" s="42"/>
       <c r="R65" s="46"/>
       <c r="S65" s="46"/>
@@ -5763,33 +5784,33 @@
       <c r="A69" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="88" t="s">
+      <c r="B69" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="88" t="s">
+      <c r="C69" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="D69" s="86" t="s">
+      <c r="D69" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="E69" s="86" t="s">
+      <c r="E69" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="83" t="s">
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="K69" s="83"/>
+      <c r="K69" s="84"/>
       <c r="L69" s="40"/>
-      <c r="M69" s="83" t="s">
+      <c r="M69" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="N69" s="83"/>
-      <c r="O69" s="83"/>
-      <c r="P69" s="83"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
       <c r="Q69" s="42"/>
       <c r="R69" s="46"/>
       <c r="S69" s="46"/>
@@ -5877,31 +5898,31 @@
       <c r="A73" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="B73" s="88" t="s">
+      <c r="B73" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="86" t="s">
+      <c r="C73" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="D73" s="86" t="s">
+      <c r="D73" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="E73" s="86" t="s">
+      <c r="E73" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83" t="s">
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="84"/>
+      <c r="J73" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="K73" s="83"/>
+      <c r="K73" s="84"/>
       <c r="L73" s="40"/>
-      <c r="M73" s="83"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="83"/>
-      <c r="P73" s="83"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
       <c r="Q73" s="42"/>
       <c r="R73" s="46"/>
       <c r="S73" s="46"/>
@@ -5989,33 +6010,33 @@
       <c r="A77" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="B77" s="88" t="s">
+      <c r="B77" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="88" t="s">
+      <c r="C77" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="D77" s="86" t="s">
+      <c r="D77" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="E77" s="86" t="s">
+      <c r="E77" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="F77" s="83"/>
-      <c r="G77" s="83"/>
-      <c r="H77" s="83"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="83"/>
-      <c r="K77" s="83" t="s">
+      <c r="F77" s="84"/>
+      <c r="G77" s="84"/>
+      <c r="H77" s="84"/>
+      <c r="I77" s="84"/>
+      <c r="J77" s="84"/>
+      <c r="K77" s="84" t="s">
         <v>147</v>
       </c>
       <c r="L77" s="40"/>
-      <c r="M77" s="83" t="s">
+      <c r="M77" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="N77" s="83"/>
-      <c r="O77" s="83"/>
-      <c r="P77" s="83"/>
+      <c r="N77" s="84"/>
+      <c r="O77" s="84"/>
+      <c r="P77" s="84"/>
       <c r="Q77" s="42"/>
       <c r="R77" s="46"/>
       <c r="S77" s="46"/>
@@ -6103,33 +6124,33 @@
       <c r="A81" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="B81" s="88" t="s">
+      <c r="B81" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="C81" s="86" t="s">
+      <c r="C81" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="D81" s="86" t="s">
+      <c r="D81" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="E81" s="86" t="s">
+      <c r="E81" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="F81" s="83"/>
-      <c r="G81" s="83"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="83"/>
-      <c r="J81" s="83"/>
-      <c r="K81" s="83" t="s">
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="84"/>
+      <c r="J81" s="84"/>
+      <c r="K81" s="84" t="s">
         <v>154</v>
       </c>
       <c r="L81" s="40"/>
-      <c r="M81" s="83" t="s">
+      <c r="M81" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="N81" s="83"/>
-      <c r="O81" s="83"/>
-      <c r="P81" s="83"/>
+      <c r="N81" s="84"/>
+      <c r="O81" s="84"/>
+      <c r="P81" s="84"/>
       <c r="Q81" s="42"/>
       <c r="R81" s="46"/>
       <c r="S81" s="46"/>
@@ -6217,33 +6238,33 @@
       <c r="A85" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="B85" s="88" t="s">
+      <c r="B85" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="88" t="s">
+      <c r="C85" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="D85" s="86" t="s">
+      <c r="D85" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="E85" s="86" t="s">
+      <c r="E85" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="F85" s="83"/>
-      <c r="G85" s="83"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="83"/>
-      <c r="J85" s="83"/>
-      <c r="K85" s="83" t="s">
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84"/>
+      <c r="J85" s="84"/>
+      <c r="K85" s="84" t="s">
         <v>160</v>
       </c>
       <c r="L85" s="40"/>
-      <c r="M85" s="83" t="s">
+      <c r="M85" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="N85" s="83"/>
-      <c r="O85" s="83"/>
-      <c r="P85" s="83"/>
+      <c r="N85" s="84"/>
+      <c r="O85" s="84"/>
+      <c r="P85" s="84"/>
       <c r="Q85" s="42"/>
       <c r="R85" s="46"/>
       <c r="S85" s="46"/>
@@ -6328,30 +6349,30 @@
       <c r="W88" s="52"/>
     </row>
     <row r="89" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A89" s="84" t="s">
+      <c r="A89" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="B89" s="84" t="s">
+      <c r="B89" s="99" t="s">
         <v>317</v>
       </c>
-      <c r="C89" s="88" t="s">
+      <c r="C89" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="D89" s="86"/>
-      <c r="E89" s="86" t="s">
+      <c r="D89" s="83"/>
+      <c r="E89" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="83"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="K89" s="84"/>
       <c r="L89" s="40"/>
-      <c r="M89" s="83"/>
-      <c r="N89" s="83"/>
-      <c r="O89" s="83"/>
-      <c r="P89" s="83"/>
+      <c r="M89" s="84"/>
+      <c r="N89" s="84"/>
+      <c r="O89" s="84"/>
+      <c r="P89" s="84"/>
       <c r="Q89" s="42"/>
       <c r="R89" s="46"/>
       <c r="S89" s="46"/>
@@ -6361,9 +6382,9 @@
       <c r="W89" s="52"/>
     </row>
     <row r="90" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A90" s="85"/>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
+      <c r="A90" s="100"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="100"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
@@ -6386,9 +6407,9 @@
       <c r="W90" s="52"/>
     </row>
     <row r="91" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A91" s="85"/>
-      <c r="B91" s="85"/>
-      <c r="C91" s="85"/>
+      <c r="A91" s="100"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="100"/>
       <c r="D91" s="79"/>
       <c r="E91" s="79"/>
       <c r="F91" s="79"/>
@@ -6437,21 +6458,21 @@
     </row>
     <row r="93" spans="1:23" ht="13.5" customHeight="1">
       <c r="A93" s="87"/>
-      <c r="B93" s="86"/>
-      <c r="C93" s="86"/>
-      <c r="D93" s="86"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="83"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="84"/>
+      <c r="I93" s="84"/>
+      <c r="J93" s="84"/>
+      <c r="K93" s="84"/>
       <c r="L93" s="40"/>
-      <c r="M93" s="83"/>
-      <c r="N93" s="83"/>
-      <c r="O93" s="83"/>
-      <c r="P93" s="83"/>
+      <c r="M93" s="84"/>
+      <c r="N93" s="84"/>
+      <c r="O93" s="84"/>
+      <c r="P93" s="84"/>
       <c r="Q93" s="42"/>
       <c r="R93" s="46"/>
       <c r="S93" s="46"/>
@@ -29162,70 +29183,255 @@
     </row>
   </sheetData>
   <mergeCells count="348">
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="K51:K53"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="N81:N83"/>
+    <mergeCell ref="O81:O83"/>
+    <mergeCell ref="P85:P87"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="P81:P83"/>
+    <mergeCell ref="M85:M87"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P43:P45"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="P47:P49"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="P31:P33"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="N77:N79"/>
+    <mergeCell ref="N73:N75"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="M69:M71"/>
+    <mergeCell ref="N69:N71"/>
+    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="M77:M79"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="K69:K71"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="K59:K63"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="M59:M63"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="O55:O57"/>
+    <mergeCell ref="P55:P57"/>
+    <mergeCell ref="O51:O53"/>
+    <mergeCell ref="P51:P53"/>
+    <mergeCell ref="N59:N61"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="N65:N67"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="N55:N57"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="P77:P79"/>
+    <mergeCell ref="P73:P75"/>
+    <mergeCell ref="O73:O75"/>
+    <mergeCell ref="O59:O61"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="O65:O67"/>
+    <mergeCell ref="P65:P67"/>
+    <mergeCell ref="O77:O79"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="P93:P95"/>
+    <mergeCell ref="O93:O95"/>
+    <mergeCell ref="P89:P91"/>
+    <mergeCell ref="O89:O91"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="M93:M95"/>
+    <mergeCell ref="J93:J95"/>
+    <mergeCell ref="K93:K95"/>
+    <mergeCell ref="M89:M91"/>
+    <mergeCell ref="N89:N91"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="N93:N95"/>
+    <mergeCell ref="O69:O71"/>
+    <mergeCell ref="P69:P71"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="J81:J83"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="I2:I4"/>
@@ -29250,266 +29456,81 @@
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="P93:P95"/>
-    <mergeCell ref="O93:O95"/>
-    <mergeCell ref="P89:P91"/>
-    <mergeCell ref="O89:O91"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="M93:M95"/>
-    <mergeCell ref="J93:J95"/>
-    <mergeCell ref="K93:K95"/>
-    <mergeCell ref="M89:M91"/>
-    <mergeCell ref="N89:N91"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="N93:N95"/>
-    <mergeCell ref="O69:O71"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="O55:O57"/>
-    <mergeCell ref="P55:P57"/>
-    <mergeCell ref="O51:O53"/>
-    <mergeCell ref="P51:P53"/>
-    <mergeCell ref="N59:N61"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="N65:N67"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="N55:N57"/>
-    <mergeCell ref="M55:M58"/>
-    <mergeCell ref="P77:P79"/>
-    <mergeCell ref="P73:P75"/>
-    <mergeCell ref="O73:O75"/>
-    <mergeCell ref="O59:O61"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="O65:O67"/>
-    <mergeCell ref="P65:P67"/>
-    <mergeCell ref="O77:O79"/>
-    <mergeCell ref="P69:P71"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="K59:K63"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="M59:M63"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="N77:N79"/>
-    <mergeCell ref="N73:N75"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="M69:M71"/>
-    <mergeCell ref="N69:N71"/>
-    <mergeCell ref="J77:J79"/>
-    <mergeCell ref="K77:K79"/>
-    <mergeCell ref="M77:M79"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="K69:K71"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="O31:O33"/>
-    <mergeCell ref="P31:P33"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="P43:P45"/>
-    <mergeCell ref="O43:O45"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B31:B33"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A35:A37"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="N81:N83"/>
-    <mergeCell ref="O81:O83"/>
-    <mergeCell ref="P85:P87"/>
-    <mergeCell ref="O85:O87"/>
-    <mergeCell ref="P81:P83"/>
-    <mergeCell ref="M85:M87"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="P47:P49"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="K51:K53"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="G47:G49"/>
   </mergeCells>
   <conditionalFormatting sqref="F7 G6:K6 M6:P9">
     <cfRule type="cellIs" dxfId="81" priority="1" stopIfTrue="1" operator="equal">
@@ -29813,26 +29834,26 @@
       <selection activeCell="B35" sqref="B35:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="16" width="15.5546875" customWidth="1"/>
+    <col min="6" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.2">
+    <row r="1" spans="1:23" ht="12.75">
       <c r="A1" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="94" t="s">
         <v>163</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="92" t="s">
         <v>165</v>
       </c>
       <c r="G1" s="79"/>
@@ -29840,49 +29861,49 @@
       <c r="I1" s="79"/>
       <c r="J1" s="79"/>
       <c r="K1" s="79"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="90" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="97" t="s">
         <v>166</v>
       </c>
       <c r="N1" s="79"/>
       <c r="O1" s="79"/>
       <c r="P1" s="79"/>
     </row>
-    <row r="2" spans="1:23" ht="13.2">
+    <row r="2" spans="1:23" ht="12.75">
       <c r="A2" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="99"/>
+      <c r="B2" s="91"/>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
       <c r="L2" s="79"/>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.2">
-      <c r="A3" s="97" t="s">
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+    </row>
+    <row r="3" spans="1:23" ht="12.75">
+      <c r="A3" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="98"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
@@ -29952,7 +29973,7 @@
       <c r="W5" s="39"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="103" t="s">
         <v>306</v>
       </c>
       <c r="B6" s="102" t="s">
@@ -30041,7 +30062,7 @@
       <c r="W8" s="52"/>
     </row>
     <row r="10" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="103" t="s">
         <v>284</v>
       </c>
       <c r="B10" s="102" t="s">
@@ -30129,7 +30150,7 @@
     </row>
     <row r="14" spans="1:23" ht="10.5" customHeight="1"/>
     <row r="15" spans="1:23" ht="19.5" customHeight="1">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="103" t="s">
         <v>285</v>
       </c>
       <c r="B15" s="102" t="s">
@@ -30216,7 +30237,7 @@
       <c r="W17" s="52"/>
     </row>
     <row r="19" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="103" t="s">
         <v>286</v>
       </c>
       <c r="B19" s="102" t="s">
@@ -30303,7 +30324,7 @@
       <c r="W21" s="52"/>
     </row>
     <row r="23" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="103" t="s">
         <v>287</v>
       </c>
       <c r="B23" s="102" t="s">
@@ -30389,8 +30410,8 @@
       <c r="V25" s="51"/>
       <c r="W25" s="52"/>
     </row>
-    <row r="27" spans="1:23" ht="13.2">
-      <c r="A27" s="104" t="s">
+    <row r="27" spans="1:23" ht="12.75">
+      <c r="A27" s="103" t="s">
         <v>288</v>
       </c>
       <c r="B27" s="102" t="s">
@@ -30417,7 +30438,7 @@
       <c r="O27" s="101"/>
       <c r="P27" s="101"/>
     </row>
-    <row r="28" spans="1:23" ht="13.2">
+    <row r="28" spans="1:23" ht="12.75">
       <c r="A28" s="79"/>
       <c r="B28" s="79"/>
       <c r="C28" s="79"/>
@@ -30435,7 +30456,7 @@
       <c r="O28" s="79"/>
       <c r="P28" s="79"/>
     </row>
-    <row r="29" spans="1:23" ht="13.2">
+    <row r="29" spans="1:23" ht="12.75">
       <c r="A29" s="79"/>
       <c r="B29" s="79"/>
       <c r="C29" s="79"/>
@@ -30453,8 +30474,8 @@
       <c r="O29" s="79"/>
       <c r="P29" s="79"/>
     </row>
-    <row r="31" spans="1:23" ht="13.2">
-      <c r="A31" s="104" t="s">
+    <row r="31" spans="1:23" ht="12.75">
+      <c r="A31" s="103" t="s">
         <v>289</v>
       </c>
       <c r="B31" s="102" t="s">
@@ -30482,7 +30503,7 @@
       <c r="P31" s="101"/>
       <c r="Q31" s="24"/>
     </row>
-    <row r="32" spans="1:23" ht="13.2">
+    <row r="32" spans="1:23" ht="12.75">
       <c r="A32" s="79"/>
       <c r="B32" s="79"/>
       <c r="C32" s="79"/>
@@ -30501,7 +30522,7 @@
       <c r="P32" s="79"/>
       <c r="Q32" s="24"/>
     </row>
-    <row r="33" spans="1:17" ht="13.2">
+    <row r="33" spans="1:17" ht="12.75">
       <c r="A33" s="79"/>
       <c r="B33" s="79"/>
       <c r="C33" s="79"/>
@@ -30520,8 +30541,8 @@
       <c r="P33" s="79"/>
       <c r="Q33" s="24"/>
     </row>
-    <row r="35" spans="1:17" ht="13.2">
-      <c r="A35" s="104" t="s">
+    <row r="35" spans="1:17" ht="12.75">
+      <c r="A35" s="103" t="s">
         <v>290</v>
       </c>
       <c r="B35" s="102" t="s">
@@ -30587,7 +30608,7 @@
       <c r="P37" s="79"/>
     </row>
     <row r="39" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A39" s="103"/>
+      <c r="A39" s="104"/>
       <c r="B39" s="102"/>
       <c r="C39" s="102"/>
       <c r="D39" s="102"/>
@@ -30624,7 +30645,7 @@
       <c r="P40" s="79"/>
       <c r="Q40" s="24"/>
     </row>
-    <row r="41" spans="1:17" ht="13.2">
+    <row r="41" spans="1:17" ht="12.75">
       <c r="A41" s="79"/>
       <c r="B41" s="79"/>
       <c r="C41" s="79"/>
@@ -30643,8 +30664,8 @@
       <c r="P41" s="79"/>
       <c r="Q41" s="24"/>
     </row>
-    <row r="43" spans="1:17" ht="13.2">
-      <c r="A43" s="103"/>
+    <row r="43" spans="1:17" ht="12.75">
+      <c r="A43" s="104"/>
       <c r="B43" s="102"/>
       <c r="C43" s="102"/>
       <c r="D43" s="102"/>
@@ -30661,7 +30682,7 @@
       <c r="O43" s="101"/>
       <c r="P43" s="101"/>
     </row>
-    <row r="44" spans="1:17" ht="13.2">
+    <row r="44" spans="1:17" ht="12.75">
       <c r="A44" s="79"/>
       <c r="B44" s="79"/>
       <c r="C44" s="79"/>
@@ -30679,7 +30700,7 @@
       <c r="O44" s="79"/>
       <c r="P44" s="79"/>
     </row>
-    <row r="45" spans="1:17" ht="13.2">
+    <row r="45" spans="1:17" ht="12.75">
       <c r="A45" s="79"/>
       <c r="B45" s="79"/>
       <c r="C45" s="79"/>
@@ -30697,8 +30718,8 @@
       <c r="O45" s="79"/>
       <c r="P45" s="79"/>
     </row>
-    <row r="47" spans="1:17" ht="13.2">
-      <c r="A47" s="103"/>
+    <row r="47" spans="1:17" ht="12.75">
+      <c r="A47" s="104"/>
       <c r="B47" s="102"/>
       <c r="C47" s="102"/>
       <c r="D47" s="102"/>
@@ -30716,7 +30737,7 @@
       <c r="P47" s="101"/>
       <c r="Q47" s="24"/>
     </row>
-    <row r="48" spans="1:17" ht="13.2">
+    <row r="48" spans="1:17" ht="12.75">
       <c r="A48" s="79"/>
       <c r="B48" s="79"/>
       <c r="C48" s="79"/>
@@ -30735,7 +30756,7 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="24"/>
     </row>
-    <row r="49" spans="1:17" ht="13.2">
+    <row r="49" spans="1:17" ht="12.75">
       <c r="A49" s="79"/>
       <c r="B49" s="79"/>
       <c r="C49" s="79"/>
@@ -30754,8 +30775,8 @@
       <c r="P49" s="79"/>
       <c r="Q49" s="24"/>
     </row>
-    <row r="51" spans="1:17" ht="13.2">
-      <c r="A51" s="103"/>
+    <row r="51" spans="1:17" ht="12.75">
+      <c r="A51" s="104"/>
       <c r="B51" s="102"/>
       <c r="C51" s="102"/>
       <c r="D51" s="102"/>
@@ -30772,7 +30793,7 @@
       <c r="O51" s="101"/>
       <c r="P51" s="101"/>
     </row>
-    <row r="52" spans="1:17" ht="13.2">
+    <row r="52" spans="1:17" ht="12.75">
       <c r="A52" s="79"/>
       <c r="B52" s="79"/>
       <c r="C52" s="79"/>
@@ -30790,7 +30811,7 @@
       <c r="O52" s="79"/>
       <c r="P52" s="79"/>
     </row>
-    <row r="53" spans="1:17" ht="13.2">
+    <row r="53" spans="1:17" ht="12.75">
       <c r="A53" s="79"/>
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
@@ -30808,8 +30829,8 @@
       <c r="O53" s="79"/>
       <c r="P53" s="79"/>
     </row>
-    <row r="55" spans="1:17" ht="13.2">
-      <c r="A55" s="103"/>
+    <row r="55" spans="1:17" ht="12.75">
+      <c r="A55" s="104"/>
       <c r="B55" s="102"/>
       <c r="C55" s="102"/>
       <c r="D55" s="102"/>
@@ -30827,7 +30848,7 @@
       <c r="P55" s="101"/>
       <c r="Q55" s="24"/>
     </row>
-    <row r="56" spans="1:17" ht="13.2">
+    <row r="56" spans="1:17" ht="12.75">
       <c r="A56" s="79"/>
       <c r="B56" s="79"/>
       <c r="C56" s="79"/>
@@ -30846,7 +30867,7 @@
       <c r="P56" s="79"/>
       <c r="Q56" s="24"/>
     </row>
-    <row r="57" spans="1:17" ht="13.2">
+    <row r="57" spans="1:17" ht="12.75">
       <c r="A57" s="79"/>
       <c r="B57" s="79"/>
       <c r="C57" s="79"/>
@@ -30865,8 +30886,8 @@
       <c r="P57" s="79"/>
       <c r="Q57" s="24"/>
     </row>
-    <row r="59" spans="1:17" ht="13.2">
-      <c r="A59" s="103"/>
+    <row r="59" spans="1:17" ht="12.75">
+      <c r="A59" s="104"/>
       <c r="B59" s="102"/>
       <c r="C59" s="102"/>
       <c r="D59" s="102"/>
@@ -30883,7 +30904,7 @@
       <c r="O59" s="101"/>
       <c r="P59" s="101"/>
     </row>
-    <row r="60" spans="1:17" ht="13.2">
+    <row r="60" spans="1:17" ht="12.75">
       <c r="A60" s="79"/>
       <c r="B60" s="79"/>
       <c r="C60" s="79"/>
@@ -30901,7 +30922,7 @@
       <c r="O60" s="79"/>
       <c r="P60" s="79"/>
     </row>
-    <row r="61" spans="1:17" ht="13.2">
+    <row r="61" spans="1:17" ht="12.75">
       <c r="A61" s="79"/>
       <c r="B61" s="79"/>
       <c r="C61" s="79"/>
@@ -30919,8 +30940,8 @@
       <c r="O61" s="79"/>
       <c r="P61" s="79"/>
     </row>
-    <row r="63" spans="1:17" ht="13.2">
-      <c r="A63" s="103"/>
+    <row r="63" spans="1:17" ht="12.75">
+      <c r="A63" s="104"/>
       <c r="B63" s="102"/>
       <c r="C63" s="102"/>
       <c r="D63" s="102"/>
@@ -30938,7 +30959,7 @@
       <c r="P63" s="101"/>
       <c r="Q63" s="24"/>
     </row>
-    <row r="64" spans="1:17" ht="13.2">
+    <row r="64" spans="1:17" ht="12.75">
       <c r="A64" s="79"/>
       <c r="B64" s="79"/>
       <c r="C64" s="79"/>
@@ -30957,7 +30978,7 @@
       <c r="P64" s="79"/>
       <c r="Q64" s="24"/>
     </row>
-    <row r="65" spans="1:17" ht="13.2">
+    <row r="65" spans="1:17" ht="12.75">
       <c r="A65" s="79"/>
       <c r="B65" s="79"/>
       <c r="C65" s="79"/>
@@ -30976,8 +30997,8 @@
       <c r="P65" s="79"/>
       <c r="Q65" s="24"/>
     </row>
-    <row r="67" spans="1:17" ht="13.2">
-      <c r="A67" s="103"/>
+    <row r="67" spans="1:17" ht="12.75">
+      <c r="A67" s="104"/>
       <c r="B67" s="102"/>
       <c r="C67" s="102"/>
       <c r="D67" s="102"/>
@@ -30994,7 +31015,7 @@
       <c r="O67" s="101"/>
       <c r="P67" s="101"/>
     </row>
-    <row r="68" spans="1:17" ht="13.2">
+    <row r="68" spans="1:17" ht="12.75">
       <c r="A68" s="79"/>
       <c r="B68" s="79"/>
       <c r="C68" s="79"/>
@@ -31012,7 +31033,7 @@
       <c r="O68" s="79"/>
       <c r="P68" s="79"/>
     </row>
-    <row r="69" spans="1:17" ht="13.2">
+    <row r="69" spans="1:17" ht="12.75">
       <c r="A69" s="79"/>
       <c r="B69" s="79"/>
       <c r="C69" s="79"/>
@@ -31032,16 +31053,230 @@
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="N59:N61"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="O67:O69"/>
+    <mergeCell ref="N67:N69"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="P67:P69"/>
+    <mergeCell ref="O55:O57"/>
+    <mergeCell ref="P55:P57"/>
+    <mergeCell ref="P63:P65"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="K63:K65"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="O59:O61"/>
+    <mergeCell ref="N63:N65"/>
+    <mergeCell ref="M63:M65"/>
+    <mergeCell ref="O63:O65"/>
+    <mergeCell ref="O51:O53"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K51:K53"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="N55:N57"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="M59:M61"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="P51:P53"/>
+    <mergeCell ref="M55:M57"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="P31:P33"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="P43:P45"/>
+    <mergeCell ref="P47:P49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="M1:P1"/>
@@ -31066,230 +31301,16 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="H6:H8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="P43:P45"/>
-    <mergeCell ref="P47:P49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="P31:P33"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="O43:O45"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="P51:P53"/>
-    <mergeCell ref="M55:M57"/>
-    <mergeCell ref="M59:M61"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="N63:N65"/>
-    <mergeCell ref="M63:M65"/>
-    <mergeCell ref="O63:O65"/>
-    <mergeCell ref="O51:O53"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K51:K53"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="N55:N57"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="O67:O69"/>
-    <mergeCell ref="N67:N69"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="P67:P69"/>
-    <mergeCell ref="O55:O57"/>
-    <mergeCell ref="P55:P57"/>
-    <mergeCell ref="P63:P65"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="K63:K65"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="O59:O61"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="N59:N61"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="O31:O33"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M19:M21"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:K5 M5:P5">
     <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
@@ -31313,27 +31334,27 @@
       <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="16" width="15.5546875" customWidth="1"/>
+    <col min="6" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.2">
+    <row r="1" spans="1:23" ht="12.75">
       <c r="A1" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="94" t="s">
         <v>219</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="92" t="s">
         <v>221</v>
       </c>
       <c r="G1" s="79"/>
@@ -31341,49 +31362,49 @@
       <c r="I1" s="79"/>
       <c r="J1" s="79"/>
       <c r="K1" s="79"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="90" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="97" t="s">
         <v>222</v>
       </c>
       <c r="N1" s="79"/>
       <c r="O1" s="79"/>
       <c r="P1" s="79"/>
     </row>
-    <row r="2" spans="1:23" ht="13.2">
+    <row r="2" spans="1:23" ht="12.75">
       <c r="A2" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="99"/>
+      <c r="B2" s="91"/>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="88" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
       <c r="L2" s="79"/>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.2">
-      <c r="A3" s="97" t="s">
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+    </row>
+    <row r="3" spans="1:23" ht="12.75">
+      <c r="A3" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="98"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
@@ -31452,11 +31473,11 @@
       <c r="V5" s="39"/>
       <c r="W5" s="39"/>
     </row>
-    <row r="6" spans="1:23" ht="19.2" customHeight="1">
-      <c r="A6" s="104" t="s">
+    <row r="6" spans="1:23" ht="19.149999999999999" customHeight="1">
+      <c r="A6" s="103" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="105" t="s">
         <v>310</v>
       </c>
       <c r="C6" s="102" t="s">
@@ -31540,7 +31561,7 @@
       <c r="W8" s="52"/>
     </row>
     <row r="10" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="103" t="s">
         <v>292</v>
       </c>
       <c r="B10" s="102" t="s">
@@ -31628,8 +31649,8 @@
     </row>
     <row r="14" spans="1:23" ht="10.5" customHeight="1"/>
     <row r="15" spans="1:23" ht="19.5" customHeight="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="106"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="102"/>
       <c r="D15" s="102"/>
       <c r="E15" s="102"/>
@@ -31653,8 +31674,8 @@
       <c r="W15" s="52"/>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="106"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="79"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
@@ -31678,8 +31699,8 @@
       <c r="W16" s="52"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="106"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
@@ -31703,7 +31724,7 @@
       <c r="W17" s="52"/>
     </row>
     <row r="19" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A19" s="103"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="102"/>
       <c r="C19" s="102"/>
       <c r="D19" s="102"/>
@@ -31778,7 +31799,7 @@
       <c r="W21" s="52"/>
     </row>
     <row r="23" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A23" s="103"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="102"/>
       <c r="C23" s="102"/>
       <c r="D23" s="102"/>
@@ -31852,8 +31873,8 @@
       <c r="V25" s="51"/>
       <c r="W25" s="52"/>
     </row>
-    <row r="27" spans="1:23" ht="13.2">
-      <c r="A27" s="103"/>
+    <row r="27" spans="1:23" ht="12.75">
+      <c r="A27" s="104"/>
       <c r="B27" s="102"/>
       <c r="C27" s="102"/>
       <c r="D27" s="102"/>
@@ -31870,7 +31891,7 @@
       <c r="O27" s="101"/>
       <c r="P27" s="101"/>
     </row>
-    <row r="28" spans="1:23" ht="13.2">
+    <row r="28" spans="1:23" ht="12.75">
       <c r="A28" s="79"/>
       <c r="B28" s="79"/>
       <c r="C28" s="79"/>
@@ -31888,7 +31909,7 @@
       <c r="O28" s="79"/>
       <c r="P28" s="79"/>
     </row>
-    <row r="29" spans="1:23" ht="13.2">
+    <row r="29" spans="1:23" ht="12.75">
       <c r="A29" s="79"/>
       <c r="B29" s="79"/>
       <c r="C29" s="79"/>
@@ -31906,8 +31927,8 @@
       <c r="O29" s="79"/>
       <c r="P29" s="79"/>
     </row>
-    <row r="31" spans="1:23" ht="13.2">
-      <c r="A31" s="103"/>
+    <row r="31" spans="1:23" ht="12.75">
+      <c r="A31" s="104"/>
       <c r="B31" s="102"/>
       <c r="C31" s="102"/>
       <c r="D31" s="102"/>
@@ -31925,7 +31946,7 @@
       <c r="P31" s="101"/>
       <c r="Q31" s="24"/>
     </row>
-    <row r="32" spans="1:23" ht="13.2">
+    <row r="32" spans="1:23" ht="12.75">
       <c r="A32" s="79"/>
       <c r="B32" s="79"/>
       <c r="C32" s="79"/>
@@ -31944,7 +31965,7 @@
       <c r="P32" s="79"/>
       <c r="Q32" s="24"/>
     </row>
-    <row r="33" spans="1:17" ht="13.2">
+    <row r="33" spans="1:17" ht="12.75">
       <c r="A33" s="79"/>
       <c r="B33" s="79"/>
       <c r="C33" s="79"/>
@@ -31963,8 +31984,8 @@
       <c r="P33" s="79"/>
       <c r="Q33" s="24"/>
     </row>
-    <row r="35" spans="1:17" ht="13.2">
-      <c r="A35" s="103"/>
+    <row r="35" spans="1:17" ht="12.75">
+      <c r="A35" s="104"/>
       <c r="B35" s="102"/>
       <c r="C35" s="102"/>
       <c r="D35" s="102"/>
@@ -31981,7 +32002,7 @@
       <c r="O35" s="101"/>
       <c r="P35" s="101"/>
     </row>
-    <row r="36" spans="1:17" ht="13.2">
+    <row r="36" spans="1:17" ht="12.75">
       <c r="A36" s="79"/>
       <c r="B36" s="79"/>
       <c r="C36" s="79"/>
@@ -31999,7 +32020,7 @@
       <c r="O36" s="79"/>
       <c r="P36" s="79"/>
     </row>
-    <row r="37" spans="1:17" ht="13.2">
+    <row r="37" spans="1:17" ht="12.75">
       <c r="A37" s="79"/>
       <c r="B37" s="79"/>
       <c r="C37" s="79"/>
@@ -32018,7 +32039,7 @@
       <c r="P37" s="79"/>
     </row>
     <row r="39" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A39" s="103"/>
+      <c r="A39" s="104"/>
       <c r="B39" s="102"/>
       <c r="C39" s="102"/>
       <c r="D39" s="102"/>
@@ -32055,7 +32076,7 @@
       <c r="P40" s="79"/>
       <c r="Q40" s="24"/>
     </row>
-    <row r="41" spans="1:17" ht="13.2">
+    <row r="41" spans="1:17" ht="12.75">
       <c r="A41" s="79"/>
       <c r="B41" s="79"/>
       <c r="C41" s="79"/>
@@ -32074,8 +32095,8 @@
       <c r="P41" s="79"/>
       <c r="Q41" s="24"/>
     </row>
-    <row r="43" spans="1:17" ht="13.2">
-      <c r="A43" s="103"/>
+    <row r="43" spans="1:17" ht="12.75">
+      <c r="A43" s="104"/>
       <c r="B43" s="102"/>
       <c r="C43" s="102"/>
       <c r="D43" s="102"/>
@@ -32092,7 +32113,7 @@
       <c r="O43" s="101"/>
       <c r="P43" s="101"/>
     </row>
-    <row r="44" spans="1:17" ht="13.2">
+    <row r="44" spans="1:17" ht="12.75">
       <c r="A44" s="79"/>
       <c r="B44" s="79"/>
       <c r="C44" s="79"/>
@@ -32110,7 +32131,7 @@
       <c r="O44" s="79"/>
       <c r="P44" s="79"/>
     </row>
-    <row r="45" spans="1:17" ht="13.2">
+    <row r="45" spans="1:17" ht="12.75">
       <c r="A45" s="79"/>
       <c r="B45" s="79"/>
       <c r="C45" s="79"/>
@@ -32128,8 +32149,8 @@
       <c r="O45" s="79"/>
       <c r="P45" s="79"/>
     </row>
-    <row r="47" spans="1:17" ht="13.2">
-      <c r="A47" s="103"/>
+    <row r="47" spans="1:17" ht="12.75">
+      <c r="A47" s="104"/>
       <c r="B47" s="102"/>
       <c r="C47" s="102"/>
       <c r="D47" s="102"/>
@@ -32147,7 +32168,7 @@
       <c r="P47" s="101"/>
       <c r="Q47" s="24"/>
     </row>
-    <row r="48" spans="1:17" ht="13.2">
+    <row r="48" spans="1:17" ht="12.75">
       <c r="A48" s="79"/>
       <c r="B48" s="79"/>
       <c r="C48" s="79"/>
@@ -32166,7 +32187,7 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="24"/>
     </row>
-    <row r="49" spans="1:17" ht="13.2">
+    <row r="49" spans="1:17" ht="12.75">
       <c r="A49" s="79"/>
       <c r="B49" s="79"/>
       <c r="C49" s="79"/>
@@ -32185,8 +32206,8 @@
       <c r="P49" s="79"/>
       <c r="Q49" s="24"/>
     </row>
-    <row r="51" spans="1:17" ht="13.2">
-      <c r="A51" s="103"/>
+    <row r="51" spans="1:17" ht="12.75">
+      <c r="A51" s="104"/>
       <c r="B51" s="102"/>
       <c r="C51" s="102"/>
       <c r="D51" s="102"/>
@@ -32203,7 +32224,7 @@
       <c r="O51" s="101"/>
       <c r="P51" s="101"/>
     </row>
-    <row r="52" spans="1:17" ht="13.2">
+    <row r="52" spans="1:17" ht="12.75">
       <c r="A52" s="79"/>
       <c r="B52" s="79"/>
       <c r="C52" s="79"/>
@@ -32221,7 +32242,7 @@
       <c r="O52" s="79"/>
       <c r="P52" s="79"/>
     </row>
-    <row r="53" spans="1:17" ht="13.2">
+    <row r="53" spans="1:17" ht="12.75">
       <c r="A53" s="79"/>
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
@@ -32239,8 +32260,8 @@
       <c r="O53" s="79"/>
       <c r="P53" s="79"/>
     </row>
-    <row r="55" spans="1:17" ht="13.2">
-      <c r="A55" s="103"/>
+    <row r="55" spans="1:17" ht="12.75">
+      <c r="A55" s="104"/>
       <c r="B55" s="102"/>
       <c r="C55" s="102"/>
       <c r="D55" s="102"/>
@@ -32258,7 +32279,7 @@
       <c r="P55" s="101"/>
       <c r="Q55" s="24"/>
     </row>
-    <row r="56" spans="1:17" ht="13.2">
+    <row r="56" spans="1:17" ht="12.75">
       <c r="A56" s="79"/>
       <c r="B56" s="79"/>
       <c r="C56" s="79"/>
@@ -32277,7 +32298,7 @@
       <c r="P56" s="79"/>
       <c r="Q56" s="24"/>
     </row>
-    <row r="57" spans="1:17" ht="13.2">
+    <row r="57" spans="1:17" ht="12.75">
       <c r="A57" s="79"/>
       <c r="B57" s="79"/>
       <c r="C57" s="79"/>
@@ -32296,8 +32317,8 @@
       <c r="P57" s="79"/>
       <c r="Q57" s="24"/>
     </row>
-    <row r="59" spans="1:17" ht="13.2">
-      <c r="A59" s="103"/>
+    <row r="59" spans="1:17" ht="12.75">
+      <c r="A59" s="104"/>
       <c r="B59" s="102"/>
       <c r="C59" s="102"/>
       <c r="D59" s="102"/>
@@ -32314,7 +32335,7 @@
       <c r="O59" s="101"/>
       <c r="P59" s="101"/>
     </row>
-    <row r="60" spans="1:17" ht="13.2">
+    <row r="60" spans="1:17" ht="12.75">
       <c r="A60" s="79"/>
       <c r="B60" s="79"/>
       <c r="C60" s="79"/>
@@ -32332,7 +32353,7 @@
       <c r="O60" s="79"/>
       <c r="P60" s="79"/>
     </row>
-    <row r="61" spans="1:17" ht="13.2">
+    <row r="61" spans="1:17" ht="12.75">
       <c r="A61" s="79"/>
       <c r="B61" s="79"/>
       <c r="C61" s="79"/>
@@ -32350,8 +32371,8 @@
       <c r="O61" s="79"/>
       <c r="P61" s="79"/>
     </row>
-    <row r="63" spans="1:17" ht="13.2">
-      <c r="A63" s="103"/>
+    <row r="63" spans="1:17" ht="12.75">
+      <c r="A63" s="104"/>
       <c r="B63" s="102"/>
       <c r="C63" s="102"/>
       <c r="D63" s="102"/>
@@ -32369,7 +32390,7 @@
       <c r="P63" s="101"/>
       <c r="Q63" s="24"/>
     </row>
-    <row r="64" spans="1:17" ht="13.2">
+    <row r="64" spans="1:17" ht="12.75">
       <c r="A64" s="79"/>
       <c r="B64" s="79"/>
       <c r="C64" s="79"/>
@@ -32388,7 +32409,7 @@
       <c r="P64" s="79"/>
       <c r="Q64" s="24"/>
     </row>
-    <row r="65" spans="1:17" ht="13.2">
+    <row r="65" spans="1:17" ht="12.75">
       <c r="A65" s="79"/>
       <c r="B65" s="79"/>
       <c r="C65" s="79"/>
@@ -32407,8 +32428,8 @@
       <c r="P65" s="79"/>
       <c r="Q65" s="24"/>
     </row>
-    <row r="67" spans="1:17" ht="13.2">
-      <c r="A67" s="103"/>
+    <row r="67" spans="1:17" ht="12.75">
+      <c r="A67" s="104"/>
       <c r="B67" s="102"/>
       <c r="C67" s="102"/>
       <c r="D67" s="102"/>
@@ -32425,7 +32446,7 @@
       <c r="O67" s="101"/>
       <c r="P67" s="101"/>
     </row>
-    <row r="68" spans="1:17" ht="13.2">
+    <row r="68" spans="1:17" ht="12.75">
       <c r="A68" s="79"/>
       <c r="B68" s="79"/>
       <c r="C68" s="79"/>
@@ -32443,7 +32464,7 @@
       <c r="O68" s="79"/>
       <c r="P68" s="79"/>
     </row>
-    <row r="69" spans="1:17" ht="13.2">
+    <row r="69" spans="1:17" ht="12.75">
       <c r="A69" s="79"/>
       <c r="B69" s="79"/>
       <c r="C69" s="79"/>
@@ -32463,80 +32484,164 @@
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="O59:O61"/>
-    <mergeCell ref="N59:N61"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="N55:N57"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="O31:O33"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="O51:O53"/>
-    <mergeCell ref="P51:P53"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="P31:P33"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="M55:M57"/>
-    <mergeCell ref="M59:M61"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="K51:K53"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="K63:K65"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="N63:N65"/>
     <mergeCell ref="M63:M65"/>
     <mergeCell ref="O63:O65"/>
@@ -32561,166 +32666,82 @@
     <mergeCell ref="O55:O57"/>
     <mergeCell ref="P55:P57"/>
     <mergeCell ref="O35:O37"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="M55:M57"/>
+    <mergeCell ref="M59:M61"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="H31:H33"/>
     <mergeCell ref="J35:J37"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="K63:K65"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="K51:K53"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="O59:O61"/>
+    <mergeCell ref="N59:N61"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="N55:N57"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="O51:O53"/>
+    <mergeCell ref="P51:P53"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="P31:P33"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:K5 M5:P5">
     <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
@@ -32744,21 +32765,21 @@
       <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.2">
+    <row r="1" spans="1:16" ht="12.75">
       <c r="A1" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="94" t="s">
         <v>245</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="92" t="s">
         <v>247</v>
       </c>
       <c r="G1" s="79"/>
@@ -32766,53 +32787,53 @@
       <c r="I1" s="79"/>
       <c r="J1" s="79"/>
       <c r="K1" s="79"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="90" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="97" t="s">
         <v>248</v>
       </c>
       <c r="N1" s="79"/>
       <c r="O1" s="79"/>
       <c r="P1" s="79"/>
     </row>
-    <row r="2" spans="1:16" ht="13.2">
+    <row r="2" spans="1:16" ht="12.75">
       <c r="A2" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="99"/>
+      <c r="B2" s="91"/>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="88" t="s">
         <v>254</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="88" t="s">
         <v>255</v>
       </c>
       <c r="L2" s="79"/>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-    </row>
-    <row r="3" spans="1:16" ht="13.2">
-      <c r="A3" s="97" t="s">
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+    </row>
+    <row r="3" spans="1:16" ht="12.75">
+      <c r="A3" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="98"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
@@ -32846,7 +32867,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="79"/>
     </row>
-    <row r="5" spans="1:16" ht="13.2">
+    <row r="5" spans="1:16" ht="12.75">
       <c r="A5" s="29"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -32864,7 +32885,7 @@
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
     </row>
-    <row r="6" spans="1:16" ht="13.2">
+    <row r="6" spans="1:16" ht="12.75">
       <c r="A6" s="33" t="s">
         <v>258</v>
       </c>
@@ -32892,37 +32913,37 @@
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
     </row>
-    <row r="7" spans="1:16" ht="13.2">
+    <row r="7" spans="1:16" ht="12.75">
       <c r="A7" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-    </row>
-    <row r="8" spans="1:16" ht="13.2">
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+    </row>
+    <row r="8" spans="1:16" ht="12.75">
       <c r="A8" s="79"/>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -32958,7 +32979,7 @@
       <c r="O9" s="79"/>
       <c r="P9" s="79"/>
     </row>
-    <row r="10" spans="1:16" ht="13.2">
+    <row r="10" spans="1:16" ht="12.75">
       <c r="A10" s="44"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -32976,39 +32997,39 @@
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
     </row>
-    <row r="11" spans="1:16" ht="13.2">
+    <row r="11" spans="1:16" ht="12.75">
       <c r="A11" s="108" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="83" t="s">
+      <c r="M11" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-    </row>
-    <row r="12" spans="1:16" ht="13.2">
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+    </row>
+    <row r="12" spans="1:16" ht="12.75">
       <c r="A12" s="79"/>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -33044,7 +33065,7 @@
       <c r="O13" s="79"/>
       <c r="P13" s="79"/>
     </row>
-    <row r="14" spans="1:16" ht="13.2">
+    <row r="14" spans="1:16" ht="12.75">
       <c r="A14" s="44"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -33062,39 +33083,39 @@
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
     </row>
-    <row r="15" spans="1:16" ht="13.2">
+    <row r="15" spans="1:16" ht="12.75">
       <c r="A15" s="108" t="s">
         <v>295</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="83" t="s">
         <v>274</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="83" t="s">
+      <c r="M15" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-    </row>
-    <row r="16" spans="1:16" ht="13.2">
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+    </row>
+    <row r="16" spans="1:16" ht="12.75">
       <c r="A16" s="79"/>
       <c r="B16" s="79"/>
       <c r="C16" s="79"/>
@@ -33132,13 +33153,46 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="O7:O9"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="G7:G9"/>
@@ -33155,46 +33209,13 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="F7 G6:K6 M6:P9">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -33304,62 +33325,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199:B201"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123:E125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="48" style="64" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" style="64" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="64" customWidth="1"/>
-    <col min="5" max="5" width="46.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="64" customWidth="1"/>
     <col min="6" max="6" width="19" style="64" customWidth="1"/>
-    <col min="7" max="16384" width="17.33203125" style="64"/>
+    <col min="7" max="16384" width="17.28515625" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="109" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
       <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
       <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="57"/>
     </row>
-    <row r="4" spans="1:6" ht="13.2">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+    <row r="4" spans="1:6" ht="12.75">
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="65"/>
     </row>
-    <row r="5" spans="1:6" ht="13.2">
+    <row r="5" spans="1:6" ht="12.75">
       <c r="A5" s="66"/>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
@@ -33390,37 +33411,37 @@
         <f>'UC001 - Cadastrar Jogo'!A7</f>
         <v>CT001</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="114" t="s">
         <v>320</v>
       </c>
       <c r="F7" s="70"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A8" s="85"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="115"/>
       <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A9" s="85"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="115"/>
       <c r="F9" s="70"/>
     </row>
-    <row r="10" spans="1:6" ht="13.2">
+    <row r="10" spans="1:6" ht="12.75">
       <c r="A10" s="66"/>
       <c r="B10" s="67"/>
       <c r="C10" s="68"/>
@@ -33433,37 +33454,37 @@
         <f>'UC001 - Cadastrar Jogo'!A11</f>
         <v>CT002</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="114" t="s">
         <v>346</v>
       </c>
       <c r="F11" s="70"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A12" s="85"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="115"/>
       <c r="F12" s="70"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A13" s="85"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="79"/>
       <c r="C13" s="79"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="119"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="115"/>
       <c r="F13" s="70"/>
     </row>
-    <row r="14" spans="1:6" ht="13.2">
+    <row r="14" spans="1:6" ht="12.75">
       <c r="A14" s="66"/>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
@@ -33476,37 +33497,37 @@
         <f>'UC001 - Cadastrar Jogo'!A15</f>
         <v>CT003</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="116" t="s">
         <v>321</v>
       </c>
       <c r="F15" s="70"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A16" s="85"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="79"/>
       <c r="C16" s="79"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="85"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A17" s="85"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="79"/>
       <c r="C17" s="79"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="85"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="70"/>
     </row>
-    <row r="18" spans="1:6" ht="13.2">
+    <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="66"/>
       <c r="B18" s="67"/>
       <c r="C18" s="68"/>
@@ -33519,37 +33540,37 @@
         <f>'UC001 - Cadastrar Jogo'!A19</f>
         <v>CT004</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E19" s="115" t="s">
+      <c r="E19" s="116" t="s">
         <v>333</v>
       </c>
       <c r="F19" s="70"/>
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A20" s="85"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="79"/>
       <c r="C20" s="79"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="85"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="100"/>
       <c r="F20" s="70"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A21" s="85"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="85"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="100"/>
       <c r="F21" s="70"/>
     </row>
-    <row r="22" spans="1:6" ht="13.2">
+    <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="66"/>
       <c r="B22" s="67"/>
       <c r="C22" s="68"/>
@@ -33562,37 +33583,37 @@
         <f>'UC001 - Cadastrar Jogo'!A23</f>
         <v>CT005</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E23" s="115" t="s">
+      <c r="E23" s="116" t="s">
         <v>334</v>
       </c>
       <c r="F23" s="70"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A24" s="85"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="79"/>
       <c r="C24" s="79"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="85"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="100"/>
       <c r="F24" s="70"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="85"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="79"/>
       <c r="C25" s="79"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="85"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="100"/>
       <c r="F25" s="70"/>
     </row>
-    <row r="26" spans="1:6" ht="13.2">
+    <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="66"/>
       <c r="B26" s="67"/>
       <c r="C26" s="68"/>
@@ -33605,35 +33626,35 @@
         <f>'UC001 - Cadastrar Jogo'!A27</f>
         <v>CT006</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E27" s="86"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="70"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="85"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="79"/>
       <c r="C28" s="79"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="85"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="100"/>
       <c r="F28" s="70"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A29" s="85"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="79"/>
       <c r="C29" s="79"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="85"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="100"/>
       <c r="F29" s="70"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2">
+    <row r="30" spans="1:6" ht="12.75">
       <c r="A30" s="66"/>
       <c r="B30" s="67"/>
       <c r="C30" s="68"/>
@@ -33646,35 +33667,35 @@
         <f>'UC001 - Cadastrar Jogo'!A31</f>
         <v>CT007</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D31" s="116" t="s">
+      <c r="D31" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E31" s="86"/>
+      <c r="E31" s="83"/>
       <c r="F31" s="70"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A32" s="85"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="79"/>
       <c r="C32" s="79"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="85"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="100"/>
       <c r="F32" s="70"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A33" s="85"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="79"/>
       <c r="C33" s="79"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="85"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="100"/>
       <c r="F33" s="70"/>
     </row>
-    <row r="34" spans="1:6" ht="13.2">
+    <row r="34" spans="1:6" ht="12.75">
       <c r="A34" s="66"/>
       <c r="B34" s="67"/>
       <c r="C34" s="68"/>
@@ -33682,40 +33703,40 @@
       <c r="E34" s="68"/>
       <c r="F34" s="65"/>
     </row>
-    <row r="35" spans="1:6" ht="19.2" customHeight="1">
+    <row r="35" spans="1:6" ht="19.149999999999999" customHeight="1">
       <c r="A35" s="87" t="str">
         <f>'UC001 - Cadastrar Jogo'!A35</f>
         <v>CT008</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D35" s="116" t="s">
+      <c r="D35" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E35" s="86"/>
+      <c r="E35" s="83"/>
       <c r="F35" s="70"/>
     </row>
-    <row r="36" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A36" s="85"/>
+    <row r="36" spans="1:6" ht="19.149999999999999" customHeight="1">
+      <c r="A36" s="100"/>
       <c r="B36" s="79"/>
       <c r="C36" s="79"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="85"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="70"/>
     </row>
-    <row r="37" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A37" s="85"/>
+    <row r="37" spans="1:6" ht="19.149999999999999" customHeight="1">
+      <c r="A37" s="100"/>
       <c r="B37" s="79"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="85"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="100"/>
       <c r="F37" s="70"/>
     </row>
-    <row r="38" spans="1:6" ht="13.2">
+    <row r="38" spans="1:6" ht="12.75">
       <c r="A38" s="66"/>
       <c r="B38" s="67"/>
       <c r="C38" s="68"/>
@@ -33723,40 +33744,40 @@
       <c r="E38" s="68"/>
       <c r="F38" s="65"/>
     </row>
-    <row r="39" spans="1:6" ht="19.2" customHeight="1">
+    <row r="39" spans="1:6" ht="19.149999999999999" customHeight="1">
       <c r="A39" s="87" t="str">
         <f>'UC001 - Cadastrar Jogo'!A39</f>
         <v>CT009</v>
       </c>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D39" s="116" t="s">
+      <c r="D39" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E39" s="86"/>
+      <c r="E39" s="83"/>
       <c r="F39" s="70"/>
     </row>
-    <row r="40" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A40" s="85"/>
+    <row r="40" spans="1:6" ht="19.149999999999999" customHeight="1">
+      <c r="A40" s="100"/>
       <c r="B40" s="79"/>
       <c r="C40" s="79"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="85"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="100"/>
       <c r="F40" s="70"/>
     </row>
-    <row r="41" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A41" s="85"/>
+    <row r="41" spans="1:6" ht="19.149999999999999" customHeight="1">
+      <c r="A41" s="100"/>
       <c r="B41" s="79"/>
       <c r="C41" s="79"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="85"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="100"/>
       <c r="F41" s="70"/>
     </row>
-    <row r="42" spans="1:6" ht="13.2">
+    <row r="42" spans="1:6" ht="12.75">
       <c r="A42" s="66"/>
       <c r="B42" s="67"/>
       <c r="C42" s="68"/>
@@ -33764,40 +33785,40 @@
       <c r="E42" s="68"/>
       <c r="F42" s="65"/>
     </row>
-    <row r="43" spans="1:6" ht="19.2" customHeight="1">
+    <row r="43" spans="1:6" ht="19.149999999999999" customHeight="1">
       <c r="A43" s="87" t="str">
         <f>'UC001 - Cadastrar Jogo'!A43</f>
         <v>CT010</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D43" s="116" t="s">
+      <c r="D43" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E43" s="86"/>
+      <c r="E43" s="83"/>
       <c r="F43" s="70"/>
     </row>
-    <row r="44" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A44" s="85"/>
+    <row r="44" spans="1:6" ht="19.149999999999999" customHeight="1">
+      <c r="A44" s="100"/>
       <c r="B44" s="79"/>
       <c r="C44" s="79"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="85"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="100"/>
       <c r="F44" s="70"/>
     </row>
-    <row r="45" spans="1:6" ht="19.2" customHeight="1">
-      <c r="A45" s="85"/>
+    <row r="45" spans="1:6" ht="19.149999999999999" customHeight="1">
+      <c r="A45" s="100"/>
       <c r="B45" s="79"/>
       <c r="C45" s="79"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="85"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="100"/>
       <c r="F45" s="70"/>
     </row>
-    <row r="46" spans="1:6" ht="13.2">
+    <row r="46" spans="1:6" ht="12.75">
       <c r="A46" s="66"/>
       <c r="B46" s="67"/>
       <c r="C46" s="68"/>
@@ -33810,35 +33831,35 @@
         <f>'UC001 - Cadastrar Jogo'!A47</f>
         <v>CT011</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="88" t="s">
+      <c r="C47" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D47" s="116" t="s">
+      <c r="D47" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E47" s="86"/>
+      <c r="E47" s="83"/>
       <c r="F47" s="70"/>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A48" s="85"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="79"/>
       <c r="C48" s="79"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="85"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="100"/>
       <c r="F48" s="70"/>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="85"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="79"/>
       <c r="C49" s="79"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="85"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="100"/>
       <c r="F49" s="70"/>
     </row>
-    <row r="50" spans="1:6" ht="13.2">
+    <row r="50" spans="1:6" ht="12.75">
       <c r="A50" s="66"/>
       <c r="B50" s="67"/>
       <c r="C50" s="68"/>
@@ -33851,35 +33872,35 @@
         <f>'UC001 - Cadastrar Jogo'!A51</f>
         <v>CT012</v>
       </c>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="88" t="s">
+      <c r="C51" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D51" s="116" t="s">
+      <c r="D51" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E51" s="86"/>
+      <c r="E51" s="83"/>
       <c r="F51" s="70"/>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="85"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="79"/>
       <c r="C52" s="79"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="85"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="100"/>
       <c r="F52" s="70"/>
     </row>
     <row r="53" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A53" s="85"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="85"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="100"/>
       <c r="F53" s="70"/>
     </row>
-    <row r="54" spans="1:6" ht="13.2">
+    <row r="54" spans="1:6" ht="12.75">
       <c r="A54" s="66"/>
       <c r="B54" s="67"/>
       <c r="C54" s="68"/>
@@ -33892,35 +33913,35 @@
         <f>'UC001 - Cadastrar Jogo'!A55</f>
         <v>CT013</v>
       </c>
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D55" s="116" t="s">
+      <c r="D55" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E55" s="86"/>
+      <c r="E55" s="83"/>
       <c r="F55" s="70"/>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A56" s="85"/>
-      <c r="B56" s="85"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="100"/>
       <c r="C56" s="79"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="85"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="100"/>
       <c r="F56" s="70"/>
     </row>
     <row r="57" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A57" s="85"/>
-      <c r="B57" s="85"/>
+      <c r="A57" s="100"/>
+      <c r="B57" s="100"/>
       <c r="C57" s="79"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="85"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="100"/>
       <c r="F57" s="70"/>
     </row>
-    <row r="58" spans="1:6" ht="13.2">
+    <row r="58" spans="1:6" ht="12.75">
       <c r="A58" s="66"/>
       <c r="B58" s="67"/>
       <c r="C58" s="68"/>
@@ -33933,35 +33954,35 @@
         <f>'UC001 - Cadastrar Jogo'!A59</f>
         <v>CT014</v>
       </c>
-      <c r="B59" s="84" t="s">
+      <c r="B59" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="88" t="s">
+      <c r="C59" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D59" s="116" t="s">
+      <c r="D59" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E59" s="86"/>
+      <c r="E59" s="83"/>
       <c r="F59" s="70"/>
     </row>
     <row r="60" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="100"/>
       <c r="C60" s="79"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="85"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="100"/>
       <c r="F60" s="70"/>
     </row>
     <row r="61" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="100"/>
       <c r="C61" s="79"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="85"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="100"/>
       <c r="F61" s="70"/>
     </row>
-    <row r="62" spans="1:6" ht="13.2">
+    <row r="62" spans="1:6" ht="12.75">
       <c r="A62" s="66"/>
       <c r="B62" s="67"/>
       <c r="C62" s="68"/>
@@ -33973,35 +33994,35 @@
       <c r="A63" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="84" t="s">
+      <c r="B63" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="88" t="s">
+      <c r="C63" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D63" s="116" t="s">
+      <c r="D63" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E63" s="86"/>
+      <c r="E63" s="83"/>
       <c r="F63" s="70"/>
     </row>
     <row r="64" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A64" s="85"/>
-      <c r="B64" s="85"/>
+      <c r="A64" s="100"/>
+      <c r="B64" s="100"/>
       <c r="C64" s="79"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="85"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="100"/>
       <c r="F64" s="70"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A65" s="85"/>
-      <c r="B65" s="85"/>
+      <c r="A65" s="100"/>
+      <c r="B65" s="100"/>
       <c r="C65" s="79"/>
-      <c r="D65" s="117"/>
-      <c r="E65" s="85"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="100"/>
       <c r="F65" s="70"/>
     </row>
-    <row r="66" spans="1:6" ht="13.2">
+    <row r="66" spans="1:6" ht="12.75">
       <c r="A66" s="66"/>
       <c r="B66" s="67"/>
       <c r="C66" s="68"/>
@@ -34013,35 +34034,35 @@
       <c r="A67" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="84" t="s">
+      <c r="B67" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="88" t="s">
+      <c r="C67" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D67" s="116" t="s">
+      <c r="D67" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E67" s="86"/>
+      <c r="E67" s="83"/>
       <c r="F67" s="70"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A68" s="85"/>
-      <c r="B68" s="85"/>
+      <c r="A68" s="100"/>
+      <c r="B68" s="100"/>
       <c r="C68" s="79"/>
-      <c r="D68" s="117"/>
-      <c r="E68" s="85"/>
+      <c r="D68" s="113"/>
+      <c r="E68" s="100"/>
       <c r="F68" s="70"/>
     </row>
     <row r="69" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A69" s="85"/>
-      <c r="B69" s="85"/>
+      <c r="A69" s="100"/>
+      <c r="B69" s="100"/>
       <c r="C69" s="79"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="85"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="100"/>
       <c r="F69" s="70"/>
     </row>
-    <row r="70" spans="1:6" ht="13.2">
+    <row r="70" spans="1:6" ht="12.75">
       <c r="A70" s="66"/>
       <c r="B70" s="67"/>
       <c r="C70" s="68"/>
@@ -34053,37 +34074,37 @@
       <c r="A71" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="84" t="s">
+      <c r="B71" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="88" t="s">
+      <c r="C71" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D71" s="120" t="s">
+      <c r="D71" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="E71" s="120" t="s">
+      <c r="E71" s="117" t="s">
         <v>335</v>
       </c>
       <c r="F71" s="70"/>
     </row>
-    <row r="72" spans="1:6" ht="13.2">
-      <c r="A72" s="85"/>
-      <c r="B72" s="85"/>
+    <row r="72" spans="1:6" ht="12.75">
+      <c r="A72" s="100"/>
+      <c r="B72" s="100"/>
       <c r="C72" s="79"/>
-      <c r="D72" s="113"/>
-      <c r="E72" s="113"/>
+      <c r="D72" s="118"/>
+      <c r="E72" s="118"/>
       <c r="F72" s="70"/>
     </row>
-    <row r="73" spans="1:6" ht="13.2">
-      <c r="A73" s="85"/>
-      <c r="B73" s="85"/>
+    <row r="73" spans="1:6" ht="12.75">
+      <c r="A73" s="100"/>
+      <c r="B73" s="100"/>
       <c r="C73" s="79"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
+      <c r="D73" s="118"/>
+      <c r="E73" s="118"/>
       <c r="F73" s="70"/>
     </row>
-    <row r="74" spans="1:6" ht="13.2">
+    <row r="74" spans="1:6" ht="12.75">
       <c r="A74" s="66"/>
       <c r="B74" s="67"/>
       <c r="C74" s="68"/>
@@ -34091,41 +34112,41 @@
       <c r="E74" s="68"/>
       <c r="F74" s="65"/>
     </row>
-    <row r="75" spans="1:6" ht="13.2">
+    <row r="75" spans="1:6" ht="12.75">
       <c r="A75" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="84" t="s">
+      <c r="B75" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="88" t="s">
+      <c r="C75" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D75" s="120" t="s">
+      <c r="D75" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="E75" s="120" t="s">
+      <c r="E75" s="117" t="s">
         <v>336</v>
       </c>
       <c r="F75" s="70"/>
     </row>
-    <row r="76" spans="1:6" ht="13.2">
-      <c r="A76" s="85"/>
-      <c r="B76" s="85"/>
+    <row r="76" spans="1:6" ht="12.75">
+      <c r="A76" s="100"/>
+      <c r="B76" s="100"/>
       <c r="C76" s="79"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="113"/>
+      <c r="D76" s="118"/>
+      <c r="E76" s="118"/>
       <c r="F76" s="70"/>
     </row>
-    <row r="77" spans="1:6" ht="13.2">
-      <c r="A77" s="85"/>
-      <c r="B77" s="85"/>
+    <row r="77" spans="1:6" ht="12.75">
+      <c r="A77" s="100"/>
+      <c r="B77" s="100"/>
       <c r="C77" s="79"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="113"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="118"/>
       <c r="F77" s="70"/>
     </row>
-    <row r="78" spans="1:6" ht="13.2">
+    <row r="78" spans="1:6" ht="12.75">
       <c r="A78" s="66"/>
       <c r="B78" s="67"/>
       <c r="C78" s="68"/>
@@ -34133,39 +34154,39 @@
       <c r="E78" s="68"/>
       <c r="F78" s="65"/>
     </row>
-    <row r="79" spans="1:6" ht="13.2">
+    <row r="79" spans="1:6" ht="12.75">
       <c r="A79" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="84" t="s">
+      <c r="B79" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="88" t="s">
+      <c r="C79" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D79" s="116" t="s">
+      <c r="D79" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E79" s="86"/>
+      <c r="E79" s="83"/>
       <c r="F79" s="70"/>
     </row>
-    <row r="80" spans="1:6" ht="13.2">
-      <c r="A80" s="85"/>
-      <c r="B80" s="85"/>
+    <row r="80" spans="1:6" ht="12.75">
+      <c r="A80" s="100"/>
+      <c r="B80" s="100"/>
       <c r="C80" s="79"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="85"/>
+      <c r="D80" s="113"/>
+      <c r="E80" s="100"/>
       <c r="F80" s="70"/>
     </row>
-    <row r="81" spans="1:6" ht="13.2">
-      <c r="A81" s="85"/>
-      <c r="B81" s="85"/>
+    <row r="81" spans="1:6" ht="12.75">
+      <c r="A81" s="100"/>
+      <c r="B81" s="100"/>
       <c r="C81" s="79"/>
-      <c r="D81" s="117"/>
-      <c r="E81" s="85"/>
+      <c r="D81" s="113"/>
+      <c r="E81" s="100"/>
       <c r="F81" s="70"/>
     </row>
-    <row r="82" spans="1:6" ht="13.2">
+    <row r="82" spans="1:6" ht="12.75">
       <c r="A82" s="66"/>
       <c r="B82" s="67"/>
       <c r="C82" s="68"/>
@@ -34173,39 +34194,39 @@
       <c r="E82" s="68"/>
       <c r="F82" s="65"/>
     </row>
-    <row r="83" spans="1:6" ht="13.2">
+    <row r="83" spans="1:6" ht="12.75">
       <c r="A83" s="108" t="s">
         <v>156</v>
       </c>
-      <c r="B83" s="84" t="s">
+      <c r="B83" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D83" s="116" t="s">
+      <c r="D83" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E83" s="86"/>
+      <c r="E83" s="83"/>
       <c r="F83" s="70"/>
     </row>
-    <row r="84" spans="1:6" ht="13.2">
-      <c r="A84" s="85"/>
-      <c r="B84" s="85"/>
+    <row r="84" spans="1:6" ht="12.75">
+      <c r="A84" s="100"/>
+      <c r="B84" s="100"/>
       <c r="C84" s="79"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="85"/>
+      <c r="D84" s="113"/>
+      <c r="E84" s="100"/>
       <c r="F84" s="70"/>
     </row>
-    <row r="85" spans="1:6" ht="13.2">
-      <c r="A85" s="85"/>
-      <c r="B85" s="85"/>
+    <row r="85" spans="1:6" ht="12.75">
+      <c r="A85" s="100"/>
+      <c r="B85" s="100"/>
       <c r="C85" s="79"/>
-      <c r="D85" s="117"/>
-      <c r="E85" s="85"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="100"/>
       <c r="F85" s="70"/>
     </row>
-    <row r="86" spans="1:6" ht="13.2">
+    <row r="86" spans="1:6" ht="12.75">
       <c r="A86" s="66"/>
       <c r="B86" s="67"/>
       <c r="C86" s="68"/>
@@ -34213,39 +34234,39 @@
       <c r="E86" s="68"/>
       <c r="F86" s="65"/>
     </row>
-    <row r="87" spans="1:6" ht="13.2" customHeight="1">
+    <row r="87" spans="1:6" ht="13.15" customHeight="1">
       <c r="A87" s="108" t="s">
         <v>283</v>
       </c>
       <c r="B87" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="C87" s="125" t="s">
+      <c r="C87" s="119" t="s">
         <v>311</v>
       </c>
-      <c r="D87" s="116" t="s">
+      <c r="D87" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E87" s="86"/>
+      <c r="E87" s="83"/>
       <c r="F87" s="70"/>
     </row>
-    <row r="88" spans="1:6" ht="13.2">
-      <c r="A88" s="85"/>
+    <row r="88" spans="1:6" ht="12.75">
+      <c r="A88" s="100"/>
       <c r="B88" s="79"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="117"/>
-      <c r="E88" s="85"/>
+      <c r="C88" s="120"/>
+      <c r="D88" s="113"/>
+      <c r="E88" s="100"/>
       <c r="F88" s="70"/>
     </row>
-    <row r="89" spans="1:6" ht="13.2">
-      <c r="A89" s="85"/>
+    <row r="89" spans="1:6" ht="12.75">
+      <c r="A89" s="100"/>
       <c r="B89" s="79"/>
-      <c r="C89" s="126"/>
-      <c r="D89" s="117"/>
-      <c r="E89" s="85"/>
+      <c r="C89" s="120"/>
+      <c r="D89" s="113"/>
+      <c r="E89" s="100"/>
       <c r="F89" s="70"/>
     </row>
-    <row r="90" spans="1:6" ht="13.2">
+    <row r="90" spans="1:6" ht="12.75">
       <c r="A90" s="66"/>
       <c r="B90" s="67"/>
       <c r="C90" s="68"/>
@@ -34253,39 +34274,39 @@
       <c r="E90" s="68"/>
       <c r="F90" s="65"/>
     </row>
-    <row r="91" spans="1:6" ht="13.2">
-      <c r="A91" s="84" t="s">
+    <row r="91" spans="1:6" ht="12.75">
+      <c r="A91" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="B91" s="107" t="s">
+      <c r="B91" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="C91" s="88" t="s">
+      <c r="C91" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="D91" s="116" t="s">
+      <c r="D91" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E91" s="111"/>
+      <c r="E91" s="121"/>
       <c r="F91" s="65"/>
     </row>
-    <row r="92" spans="1:6" ht="13.2">
-      <c r="A92" s="85"/>
+    <row r="92" spans="1:6" ht="12.75">
+      <c r="A92" s="100"/>
       <c r="B92" s="79"/>
       <c r="C92" s="79"/>
-      <c r="D92" s="117"/>
-      <c r="E92" s="85"/>
+      <c r="D92" s="113"/>
+      <c r="E92" s="100"/>
       <c r="F92" s="65"/>
     </row>
-    <row r="93" spans="1:6" ht="13.2">
-      <c r="A93" s="85"/>
+    <row r="93" spans="1:6" ht="12.75">
+      <c r="A93" s="100"/>
       <c r="B93" s="79"/>
       <c r="C93" s="79"/>
-      <c r="D93" s="117"/>
-      <c r="E93" s="85"/>
+      <c r="D93" s="113"/>
+      <c r="E93" s="100"/>
       <c r="F93" s="65"/>
     </row>
-    <row r="94" spans="1:6" ht="13.2">
+    <row r="94" spans="1:6" ht="12.75">
       <c r="A94" s="66"/>
       <c r="B94" s="67"/>
       <c r="C94" s="68"/>
@@ -34293,39 +34314,39 @@
       <c r="E94" s="68"/>
       <c r="F94" s="65"/>
     </row>
-    <row r="95" spans="1:6" ht="13.2">
-      <c r="A95" s="84" t="s">
+    <row r="95" spans="1:6" ht="12.75">
+      <c r="A95" s="99" t="s">
         <v>285</v>
       </c>
       <c r="B95" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="88" t="s">
+      <c r="C95" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="D95" s="116" t="s">
+      <c r="D95" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E95" s="111"/>
+      <c r="E95" s="121"/>
       <c r="F95" s="65"/>
     </row>
-    <row r="96" spans="1:6" ht="13.2">
-      <c r="A96" s="85"/>
+    <row r="96" spans="1:6" ht="12.75">
+      <c r="A96" s="100"/>
       <c r="B96" s="79"/>
       <c r="C96" s="79"/>
-      <c r="D96" s="117"/>
-      <c r="E96" s="85"/>
+      <c r="D96" s="113"/>
+      <c r="E96" s="100"/>
       <c r="F96" s="65"/>
     </row>
-    <row r="97" spans="1:6" ht="13.2">
-      <c r="A97" s="85"/>
+    <row r="97" spans="1:6" ht="12.75">
+      <c r="A97" s="100"/>
       <c r="B97" s="79"/>
       <c r="C97" s="79"/>
-      <c r="D97" s="117"/>
-      <c r="E97" s="85"/>
+      <c r="D97" s="113"/>
+      <c r="E97" s="100"/>
       <c r="F97" s="65"/>
     </row>
-    <row r="98" spans="1:6" ht="13.2">
+    <row r="98" spans="1:6" ht="12.75">
       <c r="A98" s="66"/>
       <c r="B98" s="67"/>
       <c r="C98" s="68"/>
@@ -34333,39 +34354,39 @@
       <c r="E98" s="68"/>
       <c r="F98" s="65"/>
     </row>
-    <row r="99" spans="1:6" ht="13.2">
-      <c r="A99" s="84" t="s">
+    <row r="99" spans="1:6" ht="12.75">
+      <c r="A99" s="99" t="s">
         <v>286</v>
       </c>
       <c r="B99" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="C99" s="88" t="s">
+      <c r="C99" s="89" t="s">
         <v>315</v>
       </c>
-      <c r="D99" s="116" t="s">
+      <c r="D99" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E99" s="111"/>
+      <c r="E99" s="121"/>
       <c r="F99" s="65"/>
     </row>
-    <row r="100" spans="1:6" ht="13.2">
-      <c r="A100" s="85"/>
+    <row r="100" spans="1:6" ht="12.75">
+      <c r="A100" s="100"/>
       <c r="B100" s="79"/>
       <c r="C100" s="79"/>
-      <c r="D100" s="117"/>
-      <c r="E100" s="85"/>
+      <c r="D100" s="113"/>
+      <c r="E100" s="100"/>
       <c r="F100" s="65"/>
     </row>
-    <row r="101" spans="1:6" ht="13.2">
-      <c r="A101" s="85"/>
+    <row r="101" spans="1:6" ht="12.75">
+      <c r="A101" s="100"/>
       <c r="B101" s="79"/>
       <c r="C101" s="79"/>
-      <c r="D101" s="117"/>
-      <c r="E101" s="85"/>
+      <c r="D101" s="113"/>
+      <c r="E101" s="100"/>
       <c r="F101" s="65"/>
     </row>
-    <row r="102" spans="1:6" ht="13.2">
+    <row r="102" spans="1:6" ht="12.75">
       <c r="A102" s="66"/>
       <c r="B102" s="67"/>
       <c r="C102" s="68"/>
@@ -34373,41 +34394,41 @@
       <c r="E102" s="68"/>
       <c r="F102" s="65"/>
     </row>
-    <row r="103" spans="1:6" ht="13.2">
-      <c r="A103" s="84" t="s">
+    <row r="103" spans="1:6" ht="12.75">
+      <c r="A103" s="99" t="s">
         <v>287</v>
       </c>
       <c r="B103" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="C103" s="124" t="s">
+      <c r="C103" s="122" t="s">
         <v>316</v>
       </c>
-      <c r="D103" s="120" t="s">
+      <c r="D103" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="E103" s="120" t="s">
+      <c r="E103" s="117" t="s">
         <v>335</v>
       </c>
       <c r="F103" s="65"/>
     </row>
-    <row r="104" spans="1:6" ht="13.2">
-      <c r="A104" s="85"/>
+    <row r="104" spans="1:6" ht="12.75">
+      <c r="A104" s="100"/>
       <c r="B104" s="79"/>
-      <c r="C104" s="85"/>
-      <c r="D104" s="113"/>
-      <c r="E104" s="113"/>
+      <c r="C104" s="100"/>
+      <c r="D104" s="118"/>
+      <c r="E104" s="118"/>
       <c r="F104" s="65"/>
     </row>
-    <row r="105" spans="1:6" ht="13.2">
-      <c r="A105" s="85"/>
+    <row r="105" spans="1:6" ht="12.75">
+      <c r="A105" s="100"/>
       <c r="B105" s="79"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="113"/>
-      <c r="E105" s="113"/>
+      <c r="C105" s="100"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="118"/>
       <c r="F105" s="65"/>
     </row>
-    <row r="106" spans="1:6" ht="13.2">
+    <row r="106" spans="1:6" ht="12.75">
       <c r="A106" s="66"/>
       <c r="B106" s="67"/>
       <c r="C106" s="68"/>
@@ -34416,40 +34437,40 @@
       <c r="F106" s="65"/>
     </row>
     <row r="107" spans="1:6" ht="18" customHeight="1">
-      <c r="A107" s="84" t="s">
+      <c r="A107" s="99" t="s">
         <v>288</v>
       </c>
       <c r="B107" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="C107" s="88" t="s">
+      <c r="C107" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D107" s="120" t="s">
+      <c r="D107" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="E107" s="120" t="s">
+      <c r="E107" s="117" t="s">
         <v>337</v>
       </c>
       <c r="F107" s="65"/>
     </row>
     <row r="108" spans="1:6" ht="18" customHeight="1">
-      <c r="A108" s="85"/>
+      <c r="A108" s="100"/>
       <c r="B108" s="79"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="113"/>
-      <c r="E108" s="113"/>
+      <c r="C108" s="100"/>
+      <c r="D108" s="118"/>
+      <c r="E108" s="118"/>
       <c r="F108" s="65"/>
     </row>
     <row r="109" spans="1:6" ht="18" customHeight="1">
-      <c r="A109" s="85"/>
+      <c r="A109" s="100"/>
       <c r="B109" s="79"/>
-      <c r="C109" s="85"/>
-      <c r="D109" s="113"/>
-      <c r="E109" s="113"/>
+      <c r="C109" s="100"/>
+      <c r="D109" s="118"/>
+      <c r="E109" s="118"/>
       <c r="F109" s="65"/>
     </row>
-    <row r="110" spans="1:6" ht="13.2">
+    <row r="110" spans="1:6" ht="12.75">
       <c r="A110" s="66"/>
       <c r="B110" s="67"/>
       <c r="C110" s="68"/>
@@ -34457,37 +34478,41 @@
       <c r="E110" s="68"/>
       <c r="F110" s="65"/>
     </row>
-    <row r="111" spans="1:6" ht="13.2">
-      <c r="A111" s="84" t="s">
+    <row r="111" spans="1:6" ht="12.75">
+      <c r="A111" s="99" t="s">
         <v>289</v>
       </c>
       <c r="B111" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="C111" s="107" t="s">
+      <c r="C111" s="105" t="s">
         <v>308</v>
       </c>
-      <c r="D111" s="111"/>
-      <c r="E111" s="111"/>
+      <c r="D111" s="117" t="s">
+        <v>323</v>
+      </c>
+      <c r="E111" s="117" t="s">
+        <v>356</v>
+      </c>
       <c r="F111" s="65"/>
     </row>
-    <row r="112" spans="1:6" ht="13.2">
-      <c r="A112" s="85"/>
+    <row r="112" spans="1:6" ht="12.75">
+      <c r="A112" s="100"/>
       <c r="B112" s="79"/>
       <c r="C112" s="79"/>
-      <c r="D112" s="85"/>
-      <c r="E112" s="85"/>
+      <c r="D112" s="118"/>
+      <c r="E112" s="118"/>
       <c r="F112" s="65"/>
     </row>
-    <row r="113" spans="1:6" ht="13.2">
-      <c r="A113" s="85"/>
+    <row r="113" spans="1:6" ht="12.75">
+      <c r="A113" s="100"/>
       <c r="B113" s="79"/>
       <c r="C113" s="79"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="85"/>
+      <c r="D113" s="118"/>
+      <c r="E113" s="118"/>
       <c r="F113" s="65"/>
     </row>
-    <row r="114" spans="1:6" ht="13.2">
+    <row r="114" spans="1:6" ht="12.75">
       <c r="A114" s="66"/>
       <c r="B114" s="67"/>
       <c r="C114" s="68"/>
@@ -34495,37 +34520,41 @@
       <c r="E114" s="68"/>
       <c r="F114" s="65"/>
     </row>
-    <row r="115" spans="1:6" ht="13.2">
-      <c r="A115" s="84" t="s">
+    <row r="115" spans="1:6" ht="12.75">
+      <c r="A115" s="99" t="s">
         <v>290</v>
       </c>
-      <c r="B115" s="107" t="s">
+      <c r="B115" s="105" t="s">
         <v>309</v>
       </c>
-      <c r="C115" s="88" t="s">
+      <c r="C115" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="D115" s="111"/>
-      <c r="E115" s="111"/>
+      <c r="D115" s="112" t="s">
+        <v>319</v>
+      </c>
+      <c r="E115" s="112" t="s">
+        <v>357</v>
+      </c>
       <c r="F115" s="65"/>
     </row>
-    <row r="116" spans="1:6" ht="13.2">
-      <c r="A116" s="85"/>
+    <row r="116" spans="1:6" ht="12.75">
+      <c r="A116" s="100"/>
       <c r="B116" s="79"/>
       <c r="C116" s="79"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
+      <c r="D116" s="113"/>
+      <c r="E116" s="113"/>
       <c r="F116" s="65"/>
     </row>
-    <row r="117" spans="1:6" ht="13.2">
-      <c r="A117" s="85"/>
+    <row r="117" spans="1:6" ht="12.75">
+      <c r="A117" s="100"/>
       <c r="B117" s="79"/>
       <c r="C117" s="79"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
+      <c r="D117" s="113"/>
+      <c r="E117" s="113"/>
       <c r="F117" s="65"/>
     </row>
-    <row r="118" spans="1:6" ht="13.2">
+    <row r="118" spans="1:6" ht="12.75">
       <c r="A118" s="66"/>
       <c r="B118" s="67"/>
       <c r="C118" s="68"/>
@@ -34533,37 +34562,41 @@
       <c r="E118" s="68"/>
       <c r="F118" s="65"/>
     </row>
-    <row r="119" spans="1:6" ht="13.2">
-      <c r="A119" s="122" t="s">
+    <row r="119" spans="1:6" ht="12.75">
+      <c r="A119" s="123" t="s">
         <v>291</v>
       </c>
-      <c r="B119" s="107" t="s">
+      <c r="B119" s="105" t="s">
         <v>310</v>
       </c>
-      <c r="C119" s="88" t="s">
+      <c r="C119" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="D119" s="111"/>
-      <c r="E119" s="111"/>
+      <c r="D119" s="112" t="s">
+        <v>319</v>
+      </c>
+      <c r="E119" s="112" t="s">
+        <v>358</v>
+      </c>
       <c r="F119" s="65"/>
     </row>
-    <row r="120" spans="1:6" ht="13.2">
-      <c r="A120" s="123"/>
+    <row r="120" spans="1:6" ht="12.75">
+      <c r="A120" s="124"/>
       <c r="B120" s="79"/>
-      <c r="C120" s="85"/>
-      <c r="D120" s="85"/>
-      <c r="E120" s="85"/>
+      <c r="C120" s="100"/>
+      <c r="D120" s="113"/>
+      <c r="E120" s="113"/>
       <c r="F120" s="65"/>
     </row>
-    <row r="121" spans="1:6" ht="13.2">
-      <c r="A121" s="123"/>
+    <row r="121" spans="1:6" ht="12.75">
+      <c r="A121" s="124"/>
       <c r="B121" s="79"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
+      <c r="C121" s="100"/>
+      <c r="D121" s="113"/>
+      <c r="E121" s="113"/>
       <c r="F121" s="65"/>
     </row>
-    <row r="122" spans="1:6" ht="13.2">
+    <row r="122" spans="1:6" ht="12.75">
       <c r="A122" s="66"/>
       <c r="B122" s="67"/>
       <c r="C122" s="68"/>
@@ -34571,37 +34604,41 @@
       <c r="E122" s="68"/>
       <c r="F122" s="65"/>
     </row>
-    <row r="123" spans="1:6" ht="13.2">
-      <c r="A123" s="122" t="s">
+    <row r="123" spans="1:6" ht="12.75">
+      <c r="A123" s="123" t="s">
         <v>292</v>
       </c>
       <c r="B123" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="C123" s="88" t="s">
+      <c r="C123" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D123" s="111"/>
-      <c r="E123" s="111"/>
+      <c r="D123" s="117" t="s">
+        <v>323</v>
+      </c>
+      <c r="E123" s="117" t="s">
+        <v>359</v>
+      </c>
       <c r="F123" s="65"/>
     </row>
-    <row r="124" spans="1:6" ht="13.2">
-      <c r="A124" s="123"/>
+    <row r="124" spans="1:6" ht="12.75">
+      <c r="A124" s="124"/>
       <c r="B124" s="79"/>
-      <c r="C124" s="85"/>
-      <c r="D124" s="85"/>
-      <c r="E124" s="85"/>
+      <c r="C124" s="100"/>
+      <c r="D124" s="118"/>
+      <c r="E124" s="118"/>
       <c r="F124" s="65"/>
     </row>
-    <row r="125" spans="1:6" ht="13.2">
-      <c r="A125" s="123"/>
+    <row r="125" spans="1:6" ht="12.75">
+      <c r="A125" s="124"/>
       <c r="B125" s="79"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
+      <c r="C125" s="100"/>
+      <c r="D125" s="118"/>
+      <c r="E125" s="118"/>
       <c r="F125" s="65"/>
     </row>
-    <row r="126" spans="1:6" ht="13.2">
+    <row r="126" spans="1:6" ht="12.75">
       <c r="A126" s="66"/>
       <c r="B126" s="67"/>
       <c r="C126" s="68"/>
@@ -34609,37 +34646,41 @@
       <c r="E126" s="68"/>
       <c r="F126" s="65"/>
     </row>
-    <row r="127" spans="1:6" ht="13.2">
-      <c r="A127" s="84" t="s">
+    <row r="127" spans="1:6" ht="12.75">
+      <c r="A127" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="B127" s="86" t="s">
+      <c r="B127" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="C127" s="88" t="s">
+      <c r="C127" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="D127" s="111"/>
-      <c r="E127" s="111"/>
+      <c r="D127" s="112" t="s">
+        <v>319</v>
+      </c>
+      <c r="E127" s="112" t="s">
+        <v>360</v>
+      </c>
       <c r="F127" s="65"/>
     </row>
-    <row r="128" spans="1:6" ht="13.2">
-      <c r="A128" s="85"/>
+    <row r="128" spans="1:6" ht="12.75">
+      <c r="A128" s="100"/>
       <c r="B128" s="79"/>
-      <c r="C128" s="85"/>
-      <c r="D128" s="85"/>
-      <c r="E128" s="85"/>
+      <c r="C128" s="100"/>
+      <c r="D128" s="113"/>
+      <c r="E128" s="113"/>
       <c r="F128" s="65"/>
     </row>
-    <row r="129" spans="1:6" ht="13.2">
-      <c r="A129" s="85"/>
+    <row r="129" spans="1:6" ht="12.75">
+      <c r="A129" s="100"/>
       <c r="B129" s="79"/>
-      <c r="C129" s="85"/>
-      <c r="D129" s="85"/>
-      <c r="E129" s="85"/>
+      <c r="C129" s="100"/>
+      <c r="D129" s="113"/>
+      <c r="E129" s="113"/>
       <c r="F129" s="65"/>
     </row>
-    <row r="130" spans="1:6" ht="13.2">
+    <row r="130" spans="1:6" ht="12.75">
       <c r="A130" s="66"/>
       <c r="B130" s="67"/>
       <c r="C130" s="68"/>
@@ -34647,37 +34688,41 @@
       <c r="E130" s="68"/>
       <c r="F130" s="65"/>
     </row>
-    <row r="131" spans="1:6" ht="13.2">
-      <c r="A131" s="84" t="s">
+    <row r="131" spans="1:6" ht="12.75">
+      <c r="A131" s="99" t="s">
         <v>294</v>
       </c>
-      <c r="B131" s="86" t="s">
+      <c r="B131" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="C131" s="88" t="s">
+      <c r="C131" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="D131" s="111"/>
-      <c r="E131" s="111"/>
+      <c r="D131" s="117" t="s">
+        <v>323</v>
+      </c>
+      <c r="E131" s="117" t="s">
+        <v>361</v>
+      </c>
       <c r="F131" s="65"/>
     </row>
-    <row r="132" spans="1:6" ht="13.2">
-      <c r="A132" s="85"/>
+    <row r="132" spans="1:6" ht="12.75">
+      <c r="A132" s="100"/>
       <c r="B132" s="79"/>
-      <c r="C132" s="85"/>
-      <c r="D132" s="85"/>
-      <c r="E132" s="85"/>
+      <c r="C132" s="100"/>
+      <c r="D132" s="118"/>
+      <c r="E132" s="118"/>
       <c r="F132" s="65"/>
     </row>
-    <row r="133" spans="1:6" ht="13.2">
-      <c r="A133" s="85"/>
+    <row r="133" spans="1:6" ht="12.75">
+      <c r="A133" s="100"/>
       <c r="B133" s="79"/>
-      <c r="C133" s="85"/>
-      <c r="D133" s="85"/>
-      <c r="E133" s="85"/>
+      <c r="C133" s="100"/>
+      <c r="D133" s="118"/>
+      <c r="E133" s="118"/>
       <c r="F133" s="65"/>
     </row>
-    <row r="134" spans="1:6" ht="13.2">
+    <row r="134" spans="1:6" ht="12.75">
       <c r="A134" s="66"/>
       <c r="B134" s="67"/>
       <c r="C134" s="68"/>
@@ -34685,37 +34730,41 @@
       <c r="E134" s="68"/>
       <c r="F134" s="65"/>
     </row>
-    <row r="135" spans="1:6" ht="13.2">
-      <c r="A135" s="84" t="s">
+    <row r="135" spans="1:6" ht="12.75">
+      <c r="A135" s="99" t="s">
         <v>295</v>
       </c>
-      <c r="B135" s="86" t="s">
+      <c r="B135" s="83" t="s">
         <v>274</v>
       </c>
-      <c r="C135" s="88" t="s">
+      <c r="C135" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="D135" s="111"/>
-      <c r="E135" s="111"/>
+      <c r="D135" s="117" t="s">
+        <v>323</v>
+      </c>
+      <c r="E135" s="117" t="s">
+        <v>361</v>
+      </c>
       <c r="F135" s="65"/>
     </row>
-    <row r="136" spans="1:6" ht="13.2">
-      <c r="A136" s="85"/>
+    <row r="136" spans="1:6" ht="12.75">
+      <c r="A136" s="100"/>
       <c r="B136" s="79"/>
-      <c r="C136" s="85"/>
-      <c r="D136" s="85"/>
-      <c r="E136" s="85"/>
+      <c r="C136" s="100"/>
+      <c r="D136" s="118"/>
+      <c r="E136" s="118"/>
       <c r="F136" s="65"/>
     </row>
-    <row r="137" spans="1:6" ht="13.2">
-      <c r="A137" s="85"/>
+    <row r="137" spans="1:6" ht="12.75">
+      <c r="A137" s="100"/>
       <c r="B137" s="79"/>
-      <c r="C137" s="85"/>
-      <c r="D137" s="85"/>
-      <c r="E137" s="85"/>
+      <c r="C137" s="100"/>
+      <c r="D137" s="118"/>
+      <c r="E137" s="118"/>
       <c r="F137" s="65"/>
     </row>
-    <row r="138" spans="1:6" ht="13.2">
+    <row r="138" spans="1:6" ht="12.75">
       <c r="A138" s="66"/>
       <c r="B138" s="67"/>
       <c r="C138" s="68"/>
@@ -34723,37 +34772,41 @@
       <c r="E138" s="68"/>
       <c r="F138" s="65"/>
     </row>
-    <row r="139" spans="1:6" ht="13.2">
-      <c r="A139" s="84" t="s">
+    <row r="139" spans="1:6" ht="12.75">
+      <c r="A139" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="B139" s="84" t="s">
+      <c r="B139" s="99" t="s">
         <v>317</v>
       </c>
-      <c r="C139" s="88" t="s">
+      <c r="C139" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="D139" s="111"/>
-      <c r="E139" s="111"/>
+      <c r="D139" s="112" t="s">
+        <v>319</v>
+      </c>
+      <c r="E139" s="112" t="s">
+        <v>362</v>
+      </c>
       <c r="F139" s="65"/>
     </row>
-    <row r="140" spans="1:6" ht="13.2">
-      <c r="A140" s="85"/>
-      <c r="B140" s="85"/>
-      <c r="C140" s="85"/>
-      <c r="D140" s="85"/>
-      <c r="E140" s="85"/>
+    <row r="140" spans="1:6" ht="12.75">
+      <c r="A140" s="100"/>
+      <c r="B140" s="100"/>
+      <c r="C140" s="100"/>
+      <c r="D140" s="113"/>
+      <c r="E140" s="113"/>
       <c r="F140" s="65"/>
     </row>
-    <row r="141" spans="1:6" ht="13.2">
-      <c r="A141" s="85"/>
-      <c r="B141" s="85"/>
-      <c r="C141" s="85"/>
-      <c r="D141" s="85"/>
-      <c r="E141" s="85"/>
+    <row r="141" spans="1:6" ht="12.75">
+      <c r="A141" s="100"/>
+      <c r="B141" s="100"/>
+      <c r="C141" s="100"/>
+      <c r="D141" s="113"/>
+      <c r="E141" s="113"/>
       <c r="F141" s="65"/>
     </row>
-    <row r="142" spans="1:6" ht="13.2">
+    <row r="142" spans="1:6" ht="12.75">
       <c r="A142" s="66"/>
       <c r="B142" s="67"/>
       <c r="C142" s="68"/>
@@ -34761,41 +34814,41 @@
       <c r="E142" s="68"/>
       <c r="F142" s="65"/>
     </row>
-    <row r="143" spans="1:6" ht="13.2">
-      <c r="A143" s="112" t="s">
+    <row r="143" spans="1:6" ht="12.75">
+      <c r="A143" s="125" t="s">
         <v>322</v>
       </c>
-      <c r="B143" s="121" t="s">
+      <c r="B143" s="126" t="s">
         <v>328</v>
       </c>
-      <c r="C143" s="115" t="s">
+      <c r="C143" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="D143" s="120" t="s">
+      <c r="D143" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="E143" s="115" t="s">
+      <c r="E143" s="116" t="s">
         <v>324</v>
       </c>
       <c r="F143" s="65"/>
     </row>
-    <row r="144" spans="1:6" ht="13.2">
-      <c r="A144" s="113"/>
-      <c r="B144" s="85"/>
-      <c r="C144" s="85"/>
-      <c r="D144" s="113"/>
-      <c r="E144" s="85"/>
+    <row r="144" spans="1:6" ht="12.75">
+      <c r="A144" s="118"/>
+      <c r="B144" s="100"/>
+      <c r="C144" s="100"/>
+      <c r="D144" s="118"/>
+      <c r="E144" s="100"/>
       <c r="F144" s="65"/>
     </row>
-    <row r="145" spans="1:6" ht="13.2">
-      <c r="A145" s="113"/>
-      <c r="B145" s="85"/>
-      <c r="C145" s="85"/>
-      <c r="D145" s="113"/>
-      <c r="E145" s="85"/>
+    <row r="145" spans="1:6" ht="12.75">
+      <c r="A145" s="118"/>
+      <c r="B145" s="100"/>
+      <c r="C145" s="100"/>
+      <c r="D145" s="118"/>
+      <c r="E145" s="100"/>
       <c r="F145" s="65"/>
     </row>
-    <row r="146" spans="1:6" ht="13.2">
+    <row r="146" spans="1:6" ht="12.75">
       <c r="A146" s="75"/>
       <c r="B146" s="67"/>
       <c r="C146" s="68"/>
@@ -34803,41 +34856,41 @@
       <c r="E146" s="68"/>
       <c r="F146" s="65"/>
     </row>
-    <row r="147" spans="1:6" ht="13.2">
-      <c r="A147" s="112" t="s">
+    <row r="147" spans="1:6" ht="12.75">
+      <c r="A147" s="125" t="s">
         <v>325</v>
       </c>
-      <c r="B147" s="121" t="s">
+      <c r="B147" s="126" t="s">
         <v>327</v>
       </c>
-      <c r="C147" s="115" t="s">
+      <c r="C147" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="D147" s="120" t="s">
+      <c r="D147" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="E147" s="115" t="s">
+      <c r="E147" s="116" t="s">
         <v>338</v>
       </c>
       <c r="F147" s="65"/>
     </row>
-    <row r="148" spans="1:6" ht="13.2">
-      <c r="A148" s="113"/>
-      <c r="B148" s="85"/>
-      <c r="C148" s="85"/>
-      <c r="D148" s="113"/>
-      <c r="E148" s="85"/>
+    <row r="148" spans="1:6" ht="12.75">
+      <c r="A148" s="118"/>
+      <c r="B148" s="100"/>
+      <c r="C148" s="100"/>
+      <c r="D148" s="118"/>
+      <c r="E148" s="100"/>
       <c r="F148" s="65"/>
     </row>
-    <row r="149" spans="1:6" ht="13.2">
-      <c r="A149" s="113"/>
-      <c r="B149" s="85"/>
-      <c r="C149" s="85"/>
-      <c r="D149" s="113"/>
-      <c r="E149" s="85"/>
+    <row r="149" spans="1:6" ht="12.75">
+      <c r="A149" s="118"/>
+      <c r="B149" s="100"/>
+      <c r="C149" s="100"/>
+      <c r="D149" s="118"/>
+      <c r="E149" s="100"/>
       <c r="F149" s="65"/>
     </row>
-    <row r="150" spans="1:6" ht="13.2">
+    <row r="150" spans="1:6" ht="12.75">
       <c r="A150" s="75"/>
       <c r="B150" s="67"/>
       <c r="C150" s="68"/>
@@ -34845,41 +34898,41 @@
       <c r="E150" s="68"/>
       <c r="F150" s="65"/>
     </row>
-    <row r="151" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A151" s="112" t="s">
+    <row r="151" spans="1:6" ht="13.15" customHeight="1">
+      <c r="A151" s="125" t="s">
         <v>326</v>
       </c>
-      <c r="B151" s="121" t="s">
+      <c r="B151" s="126" t="s">
         <v>329</v>
       </c>
-      <c r="C151" s="115" t="s">
+      <c r="C151" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="D151" s="120" t="s">
+      <c r="D151" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="E151" s="115" t="s">
+      <c r="E151" s="116" t="s">
         <v>338</v>
       </c>
       <c r="F151" s="65"/>
     </row>
-    <row r="152" spans="1:6" ht="13.2">
-      <c r="A152" s="113"/>
-      <c r="B152" s="85"/>
-      <c r="C152" s="85"/>
-      <c r="D152" s="113"/>
-      <c r="E152" s="85"/>
+    <row r="152" spans="1:6" ht="12.75">
+      <c r="A152" s="118"/>
+      <c r="B152" s="100"/>
+      <c r="C152" s="100"/>
+      <c r="D152" s="118"/>
+      <c r="E152" s="100"/>
       <c r="F152" s="65"/>
     </row>
-    <row r="153" spans="1:6" ht="13.2">
-      <c r="A153" s="113"/>
-      <c r="B153" s="85"/>
-      <c r="C153" s="85"/>
-      <c r="D153" s="113"/>
-      <c r="E153" s="85"/>
+    <row r="153" spans="1:6" ht="12.75">
+      <c r="A153" s="118"/>
+      <c r="B153" s="100"/>
+      <c r="C153" s="100"/>
+      <c r="D153" s="118"/>
+      <c r="E153" s="100"/>
       <c r="F153" s="65"/>
     </row>
-    <row r="154" spans="1:6" ht="13.2">
+    <row r="154" spans="1:6" ht="12.75">
       <c r="A154" s="75"/>
       <c r="B154" s="67"/>
       <c r="C154" s="68"/>
@@ -34887,41 +34940,41 @@
       <c r="E154" s="68"/>
       <c r="F154" s="65"/>
     </row>
-    <row r="155" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A155" s="112" t="s">
+    <row r="155" spans="1:6" ht="13.15" customHeight="1">
+      <c r="A155" s="125" t="s">
         <v>330</v>
       </c>
-      <c r="B155" s="121" t="s">
+      <c r="B155" s="126" t="s">
         <v>331</v>
       </c>
-      <c r="C155" s="115" t="s">
+      <c r="C155" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="D155" s="120" t="s">
+      <c r="D155" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="E155" s="115" t="s">
+      <c r="E155" s="116" t="s">
         <v>338</v>
       </c>
       <c r="F155" s="65"/>
     </row>
-    <row r="156" spans="1:6" ht="13.2">
-      <c r="A156" s="113"/>
-      <c r="B156" s="85"/>
-      <c r="C156" s="85"/>
-      <c r="D156" s="113"/>
-      <c r="E156" s="85"/>
+    <row r="156" spans="1:6" ht="12.75">
+      <c r="A156" s="118"/>
+      <c r="B156" s="100"/>
+      <c r="C156" s="100"/>
+      <c r="D156" s="118"/>
+      <c r="E156" s="100"/>
       <c r="F156" s="65"/>
     </row>
-    <row r="157" spans="1:6" ht="13.2">
-      <c r="A157" s="113"/>
-      <c r="B157" s="85"/>
-      <c r="C157" s="85"/>
-      <c r="D157" s="113"/>
-      <c r="E157" s="85"/>
+    <row r="157" spans="1:6" ht="12.75">
+      <c r="A157" s="118"/>
+      <c r="B157" s="100"/>
+      <c r="C157" s="100"/>
+      <c r="D157" s="118"/>
+      <c r="E157" s="100"/>
       <c r="F157" s="65"/>
     </row>
-    <row r="158" spans="1:6" ht="13.2">
+    <row r="158" spans="1:6" ht="12.75">
       <c r="A158" s="75"/>
       <c r="B158" s="67"/>
       <c r="C158" s="68"/>
@@ -34929,41 +34982,41 @@
       <c r="E158" s="68"/>
       <c r="F158" s="65"/>
     </row>
-    <row r="159" spans="1:6" ht="13.2">
-      <c r="A159" s="112" t="s">
+    <row r="159" spans="1:6" ht="12.75">
+      <c r="A159" s="125" t="s">
         <v>330</v>
       </c>
-      <c r="B159" s="121" t="s">
+      <c r="B159" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="C159" s="115" t="s">
+      <c r="C159" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="D159" s="120" t="s">
+      <c r="D159" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="E159" s="115" t="s">
+      <c r="E159" s="116" t="s">
         <v>339</v>
       </c>
       <c r="F159" s="65"/>
     </row>
-    <row r="160" spans="1:6" ht="13.2">
-      <c r="A160" s="113"/>
-      <c r="B160" s="85"/>
-      <c r="C160" s="85"/>
-      <c r="D160" s="113"/>
-      <c r="E160" s="85"/>
+    <row r="160" spans="1:6" ht="12.75">
+      <c r="A160" s="118"/>
+      <c r="B160" s="100"/>
+      <c r="C160" s="100"/>
+      <c r="D160" s="118"/>
+      <c r="E160" s="100"/>
       <c r="F160" s="65"/>
     </row>
-    <row r="161" spans="1:6" ht="13.2">
-      <c r="A161" s="113"/>
-      <c r="B161" s="85"/>
-      <c r="C161" s="85"/>
-      <c r="D161" s="113"/>
-      <c r="E161" s="85"/>
+    <row r="161" spans="1:6" ht="12.75">
+      <c r="A161" s="118"/>
+      <c r="B161" s="100"/>
+      <c r="C161" s="100"/>
+      <c r="D161" s="118"/>
+      <c r="E161" s="100"/>
       <c r="F161" s="65"/>
     </row>
-    <row r="162" spans="1:6" ht="13.2">
+    <row r="162" spans="1:6" ht="12.75">
       <c r="A162" s="66"/>
       <c r="B162" s="67"/>
       <c r="C162" s="68"/>
@@ -34971,41 +35024,41 @@
       <c r="E162" s="68"/>
       <c r="F162" s="65"/>
     </row>
-    <row r="163" spans="1:6" ht="13.2">
-      <c r="A163" s="112" t="s">
+    <row r="163" spans="1:6" ht="12.75">
+      <c r="A163" s="125" t="s">
         <v>340</v>
       </c>
-      <c r="B163" s="114" t="s">
+      <c r="B163" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="C163" s="115" t="s">
+      <c r="C163" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="D163" s="116" t="s">
+      <c r="D163" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E163" s="118" t="s">
+      <c r="E163" s="114" t="s">
         <v>347</v>
       </c>
       <c r="F163" s="65"/>
     </row>
-    <row r="164" spans="1:6" ht="13.2">
-      <c r="A164" s="113"/>
+    <row r="164" spans="1:6" ht="12.75">
+      <c r="A164" s="118"/>
       <c r="B164" s="79"/>
-      <c r="C164" s="85"/>
-      <c r="D164" s="117"/>
-      <c r="E164" s="119"/>
+      <c r="C164" s="100"/>
+      <c r="D164" s="113"/>
+      <c r="E164" s="115"/>
       <c r="F164" s="65"/>
     </row>
-    <row r="165" spans="1:6" ht="13.2">
-      <c r="A165" s="113"/>
+    <row r="165" spans="1:6" ht="12.75">
+      <c r="A165" s="118"/>
       <c r="B165" s="79"/>
-      <c r="C165" s="85"/>
-      <c r="D165" s="117"/>
-      <c r="E165" s="119"/>
+      <c r="C165" s="100"/>
+      <c r="D165" s="113"/>
+      <c r="E165" s="115"/>
       <c r="F165" s="65"/>
     </row>
-    <row r="166" spans="1:6" ht="13.2">
+    <row r="166" spans="1:6" ht="12.75">
       <c r="A166" s="66"/>
       <c r="B166" s="67"/>
       <c r="C166" s="68"/>
@@ -35013,41 +35066,41 @@
       <c r="E166" s="68"/>
       <c r="F166" s="65"/>
     </row>
-    <row r="167" spans="1:6" ht="13.2">
-      <c r="A167" s="112" t="s">
+    <row r="167" spans="1:6" ht="12.75">
+      <c r="A167" s="125" t="s">
         <v>340</v>
       </c>
-      <c r="B167" s="114" t="s">
+      <c r="B167" s="127" t="s">
         <v>345</v>
       </c>
-      <c r="C167" s="115" t="s">
+      <c r="C167" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="D167" s="116" t="s">
+      <c r="D167" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E167" s="118" t="s">
+      <c r="E167" s="114" t="s">
         <v>347</v>
       </c>
       <c r="F167" s="65"/>
     </row>
-    <row r="168" spans="1:6" ht="13.2">
-      <c r="A168" s="113"/>
+    <row r="168" spans="1:6" ht="12.75">
+      <c r="A168" s="118"/>
       <c r="B168" s="79"/>
-      <c r="C168" s="85"/>
-      <c r="D168" s="117"/>
-      <c r="E168" s="119"/>
+      <c r="C168" s="100"/>
+      <c r="D168" s="113"/>
+      <c r="E168" s="115"/>
       <c r="F168" s="65"/>
     </row>
-    <row r="169" spans="1:6" ht="13.2">
-      <c r="A169" s="113"/>
+    <row r="169" spans="1:6" ht="12.75">
+      <c r="A169" s="118"/>
       <c r="B169" s="79"/>
-      <c r="C169" s="85"/>
-      <c r="D169" s="117"/>
-      <c r="E169" s="119"/>
+      <c r="C169" s="100"/>
+      <c r="D169" s="113"/>
+      <c r="E169" s="115"/>
       <c r="F169" s="65"/>
     </row>
-    <row r="170" spans="1:6" ht="13.2">
+    <row r="170" spans="1:6" ht="12.75">
       <c r="A170" s="66"/>
       <c r="B170" s="67"/>
       <c r="C170" s="68"/>
@@ -35055,41 +35108,41 @@
       <c r="E170" s="68"/>
       <c r="F170" s="65"/>
     </row>
-    <row r="171" spans="1:6" ht="13.2">
-      <c r="A171" s="112" t="s">
+    <row r="171" spans="1:6" ht="12.75">
+      <c r="A171" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="B171" s="114" t="s">
+      <c r="B171" s="127" t="s">
         <v>348</v>
       </c>
-      <c r="C171" s="115" t="s">
+      <c r="C171" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="D171" s="116" t="s">
+      <c r="D171" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E171" s="118" t="s">
+      <c r="E171" s="114" t="s">
         <v>347</v>
       </c>
       <c r="F171" s="65"/>
     </row>
-    <row r="172" spans="1:6" ht="13.2">
-      <c r="A172" s="113"/>
+    <row r="172" spans="1:6" ht="12.75">
+      <c r="A172" s="118"/>
       <c r="B172" s="79"/>
-      <c r="C172" s="85"/>
-      <c r="D172" s="117"/>
-      <c r="E172" s="119"/>
+      <c r="C172" s="100"/>
+      <c r="D172" s="113"/>
+      <c r="E172" s="115"/>
       <c r="F172" s="65"/>
     </row>
-    <row r="173" spans="1:6" ht="13.2">
-      <c r="A173" s="113"/>
+    <row r="173" spans="1:6" ht="12.75">
+      <c r="A173" s="118"/>
       <c r="B173" s="79"/>
-      <c r="C173" s="85"/>
-      <c r="D173" s="117"/>
-      <c r="E173" s="119"/>
+      <c r="C173" s="100"/>
+      <c r="D173" s="113"/>
+      <c r="E173" s="115"/>
       <c r="F173" s="65"/>
     </row>
-    <row r="174" spans="1:6" ht="13.2">
+    <row r="174" spans="1:6" ht="12.75">
       <c r="A174" s="66"/>
       <c r="B174" s="67"/>
       <c r="C174" s="68"/>
@@ -35097,41 +35150,41 @@
       <c r="E174" s="68"/>
       <c r="F174" s="65"/>
     </row>
-    <row r="175" spans="1:6" ht="13.2">
-      <c r="A175" s="112" t="s">
+    <row r="175" spans="1:6" ht="12.75">
+      <c r="A175" s="125" t="s">
         <v>342</v>
       </c>
-      <c r="B175" s="114" t="s">
+      <c r="B175" s="127" t="s">
         <v>349</v>
       </c>
-      <c r="C175" s="115" t="s">
+      <c r="C175" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="D175" s="116" t="s">
+      <c r="D175" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E175" s="118" t="s">
+      <c r="E175" s="114" t="s">
         <v>347</v>
       </c>
       <c r="F175" s="65"/>
     </row>
-    <row r="176" spans="1:6" ht="13.2">
-      <c r="A176" s="113"/>
+    <row r="176" spans="1:6" ht="12.75">
+      <c r="A176" s="118"/>
       <c r="B176" s="79"/>
-      <c r="C176" s="85"/>
-      <c r="D176" s="117"/>
-      <c r="E176" s="119"/>
+      <c r="C176" s="100"/>
+      <c r="D176" s="113"/>
+      <c r="E176" s="115"/>
       <c r="F176" s="65"/>
     </row>
-    <row r="177" spans="1:6" ht="13.2">
-      <c r="A177" s="113"/>
+    <row r="177" spans="1:6" ht="12.75">
+      <c r="A177" s="118"/>
       <c r="B177" s="79"/>
-      <c r="C177" s="85"/>
-      <c r="D177" s="117"/>
-      <c r="E177" s="119"/>
+      <c r="C177" s="100"/>
+      <c r="D177" s="113"/>
+      <c r="E177" s="115"/>
       <c r="F177" s="65"/>
     </row>
-    <row r="178" spans="1:6" ht="13.2">
+    <row r="178" spans="1:6" ht="12.75">
       <c r="A178" s="66"/>
       <c r="B178" s="67"/>
       <c r="C178" s="68"/>
@@ -35139,41 +35192,41 @@
       <c r="E178" s="68"/>
       <c r="F178" s="65"/>
     </row>
-    <row r="179" spans="1:6" ht="13.2">
-      <c r="A179" s="112" t="s">
+    <row r="179" spans="1:6" ht="12.75">
+      <c r="A179" s="125" t="s">
         <v>343</v>
       </c>
-      <c r="B179" s="114" t="s">
+      <c r="B179" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="C179" s="115" t="s">
+      <c r="C179" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="D179" s="116" t="s">
+      <c r="D179" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="E179" s="118" t="s">
+      <c r="E179" s="114" t="s">
         <v>347</v>
       </c>
       <c r="F179" s="65"/>
     </row>
-    <row r="180" spans="1:6" ht="13.2">
-      <c r="A180" s="113"/>
+    <row r="180" spans="1:6" ht="12.75">
+      <c r="A180" s="118"/>
       <c r="B180" s="79"/>
-      <c r="C180" s="85"/>
-      <c r="D180" s="117"/>
-      <c r="E180" s="119"/>
+      <c r="C180" s="100"/>
+      <c r="D180" s="113"/>
+      <c r="E180" s="115"/>
       <c r="F180" s="65"/>
     </row>
-    <row r="181" spans="1:6" ht="13.2">
-      <c r="A181" s="113"/>
+    <row r="181" spans="1:6" ht="12.75">
+      <c r="A181" s="118"/>
       <c r="B181" s="79"/>
-      <c r="C181" s="85"/>
-      <c r="D181" s="117"/>
-      <c r="E181" s="119"/>
+      <c r="C181" s="100"/>
+      <c r="D181" s="113"/>
+      <c r="E181" s="115"/>
       <c r="F181" s="65"/>
     </row>
-    <row r="182" spans="1:6" ht="13.2">
+    <row r="182" spans="1:6" ht="12.75">
       <c r="A182" s="66"/>
       <c r="B182" s="67"/>
       <c r="C182" s="68"/>
@@ -35181,41 +35234,41 @@
       <c r="E182" s="68"/>
       <c r="F182" s="65"/>
     </row>
-    <row r="183" spans="1:6" ht="13.2">
-      <c r="A183" s="112" t="s">
+    <row r="183" spans="1:6" ht="12.75">
+      <c r="A183" s="125" t="s">
         <v>350</v>
       </c>
-      <c r="B183" s="114" t="s">
+      <c r="B183" s="127" t="s">
         <v>351</v>
       </c>
-      <c r="C183" s="115" t="s">
+      <c r="C183" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="D183" s="120" t="s">
+      <c r="D183" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="E183" s="120" t="s">
+      <c r="E183" s="117" t="s">
         <v>335</v>
       </c>
       <c r="F183" s="65"/>
     </row>
-    <row r="184" spans="1:6" ht="13.2">
-      <c r="A184" s="113"/>
+    <row r="184" spans="1:6" ht="12.75">
+      <c r="A184" s="118"/>
       <c r="B184" s="79"/>
-      <c r="C184" s="85"/>
-      <c r="D184" s="113"/>
-      <c r="E184" s="113"/>
+      <c r="C184" s="100"/>
+      <c r="D184" s="118"/>
+      <c r="E184" s="118"/>
       <c r="F184" s="65"/>
     </row>
-    <row r="185" spans="1:6" ht="13.2">
-      <c r="A185" s="113"/>
+    <row r="185" spans="1:6" ht="12.75">
+      <c r="A185" s="118"/>
       <c r="B185" s="79"/>
-      <c r="C185" s="85"/>
-      <c r="D185" s="113"/>
-      <c r="E185" s="113"/>
+      <c r="C185" s="100"/>
+      <c r="D185" s="118"/>
+      <c r="E185" s="118"/>
       <c r="F185" s="65"/>
     </row>
-    <row r="186" spans="1:6" ht="13.2">
+    <row r="186" spans="1:6" ht="12.75">
       <c r="A186" s="66"/>
       <c r="B186" s="67"/>
       <c r="C186" s="68"/>
@@ -35223,31 +35276,31 @@
       <c r="E186" s="68"/>
       <c r="F186" s="65"/>
     </row>
-    <row r="187" spans="1:6" ht="13.2">
-      <c r="A187" s="109"/>
-      <c r="B187" s="110"/>
-      <c r="C187" s="111"/>
-      <c r="D187" s="111"/>
-      <c r="E187" s="86"/>
+    <row r="187" spans="1:6" ht="12.75">
+      <c r="A187" s="128"/>
+      <c r="B187" s="129"/>
+      <c r="C187" s="121"/>
+      <c r="D187" s="121"/>
+      <c r="E187" s="83"/>
       <c r="F187" s="65"/>
     </row>
-    <row r="188" spans="1:6" ht="13.2">
-      <c r="A188" s="85"/>
-      <c r="B188" s="85"/>
-      <c r="C188" s="85"/>
-      <c r="D188" s="85"/>
-      <c r="E188" s="85"/>
+    <row r="188" spans="1:6" ht="12.75">
+      <c r="A188" s="100"/>
+      <c r="B188" s="100"/>
+      <c r="C188" s="100"/>
+      <c r="D188" s="100"/>
+      <c r="E188" s="100"/>
       <c r="F188" s="65"/>
     </row>
-    <row r="189" spans="1:6" ht="13.2">
-      <c r="A189" s="85"/>
-      <c r="B189" s="85"/>
-      <c r="C189" s="85"/>
-      <c r="D189" s="85"/>
-      <c r="E189" s="85"/>
+    <row r="189" spans="1:6" ht="12.75">
+      <c r="A189" s="100"/>
+      <c r="B189" s="100"/>
+      <c r="C189" s="100"/>
+      <c r="D189" s="100"/>
+      <c r="E189" s="100"/>
       <c r="F189" s="65"/>
     </row>
-    <row r="190" spans="1:6" ht="13.2">
+    <row r="190" spans="1:6" ht="12.75">
       <c r="A190" s="66"/>
       <c r="B190" s="67"/>
       <c r="C190" s="68"/>
@@ -35255,31 +35308,31 @@
       <c r="E190" s="68"/>
       <c r="F190" s="65"/>
     </row>
-    <row r="191" spans="1:6" ht="13.2">
-      <c r="A191" s="109"/>
-      <c r="B191" s="110"/>
-      <c r="C191" s="111"/>
-      <c r="D191" s="111"/>
-      <c r="E191" s="111"/>
+    <row r="191" spans="1:6" ht="12.75">
+      <c r="A191" s="128"/>
+      <c r="B191" s="129"/>
+      <c r="C191" s="121"/>
+      <c r="D191" s="121"/>
+      <c r="E191" s="121"/>
       <c r="F191" s="65"/>
     </row>
-    <row r="192" spans="1:6" ht="13.2">
-      <c r="A192" s="85"/>
-      <c r="B192" s="85"/>
-      <c r="C192" s="85"/>
-      <c r="D192" s="85"/>
-      <c r="E192" s="85"/>
+    <row r="192" spans="1:6" ht="12.75">
+      <c r="A192" s="100"/>
+      <c r="B192" s="100"/>
+      <c r="C192" s="100"/>
+      <c r="D192" s="100"/>
+      <c r="E192" s="100"/>
       <c r="F192" s="65"/>
     </row>
-    <row r="193" spans="1:6" ht="13.2">
-      <c r="A193" s="85"/>
-      <c r="B193" s="85"/>
-      <c r="C193" s="85"/>
-      <c r="D193" s="85"/>
-      <c r="E193" s="85"/>
+    <row r="193" spans="1:6" ht="12.75">
+      <c r="A193" s="100"/>
+      <c r="B193" s="100"/>
+      <c r="C193" s="100"/>
+      <c r="D193" s="100"/>
+      <c r="E193" s="100"/>
       <c r="F193" s="65"/>
     </row>
-    <row r="194" spans="1:6" ht="13.2">
+    <row r="194" spans="1:6" ht="12.75">
       <c r="A194" s="66"/>
       <c r="B194" s="67"/>
       <c r="C194" s="68"/>
@@ -35287,31 +35340,31 @@
       <c r="E194" s="68"/>
       <c r="F194" s="65"/>
     </row>
-    <row r="195" spans="1:6" ht="13.2">
-      <c r="A195" s="109"/>
-      <c r="B195" s="110"/>
-      <c r="C195" s="111"/>
-      <c r="D195" s="111"/>
-      <c r="E195" s="111"/>
+    <row r="195" spans="1:6" ht="12.75">
+      <c r="A195" s="128"/>
+      <c r="B195" s="129"/>
+      <c r="C195" s="121"/>
+      <c r="D195" s="121"/>
+      <c r="E195" s="121"/>
       <c r="F195" s="65"/>
     </row>
-    <row r="196" spans="1:6" ht="13.2">
-      <c r="A196" s="85"/>
-      <c r="B196" s="85"/>
-      <c r="C196" s="85"/>
-      <c r="D196" s="85"/>
-      <c r="E196" s="85"/>
+    <row r="196" spans="1:6" ht="12.75">
+      <c r="A196" s="100"/>
+      <c r="B196" s="100"/>
+      <c r="C196" s="100"/>
+      <c r="D196" s="100"/>
+      <c r="E196" s="100"/>
       <c r="F196" s="65"/>
     </row>
-    <row r="197" spans="1:6" ht="13.2">
-      <c r="A197" s="85"/>
-      <c r="B197" s="85"/>
-      <c r="C197" s="85"/>
-      <c r="D197" s="85"/>
-      <c r="E197" s="85"/>
+    <row r="197" spans="1:6" ht="12.75">
+      <c r="A197" s="100"/>
+      <c r="B197" s="100"/>
+      <c r="C197" s="100"/>
+      <c r="D197" s="100"/>
+      <c r="E197" s="100"/>
       <c r="F197" s="65"/>
     </row>
-    <row r="198" spans="1:6" ht="13.2">
+    <row r="198" spans="1:6" ht="12.75">
       <c r="A198" s="66"/>
       <c r="B198" s="67"/>
       <c r="C198" s="68"/>
@@ -35319,31 +35372,31 @@
       <c r="E198" s="68"/>
       <c r="F198" s="65"/>
     </row>
-    <row r="199" spans="1:6" ht="13.2">
-      <c r="A199" s="109"/>
-      <c r="B199" s="110"/>
-      <c r="C199" s="111"/>
-      <c r="D199" s="111"/>
-      <c r="E199" s="111"/>
+    <row r="199" spans="1:6" ht="12.75">
+      <c r="A199" s="128"/>
+      <c r="B199" s="129"/>
+      <c r="C199" s="121"/>
+      <c r="D199" s="121"/>
+      <c r="E199" s="121"/>
       <c r="F199" s="65"/>
     </row>
-    <row r="200" spans="1:6" ht="13.2">
-      <c r="A200" s="85"/>
-      <c r="B200" s="85"/>
-      <c r="C200" s="85"/>
-      <c r="D200" s="85"/>
-      <c r="E200" s="85"/>
+    <row r="200" spans="1:6" ht="12.75">
+      <c r="A200" s="100"/>
+      <c r="B200" s="100"/>
+      <c r="C200" s="100"/>
+      <c r="D200" s="100"/>
+      <c r="E200" s="100"/>
       <c r="F200" s="65"/>
     </row>
-    <row r="201" spans="1:6" ht="13.2">
-      <c r="A201" s="85"/>
-      <c r="B201" s="85"/>
-      <c r="C201" s="85"/>
-      <c r="D201" s="85"/>
-      <c r="E201" s="85"/>
+    <row r="201" spans="1:6" ht="12.75">
+      <c r="A201" s="100"/>
+      <c r="B201" s="100"/>
+      <c r="C201" s="100"/>
+      <c r="D201" s="100"/>
+      <c r="E201" s="100"/>
       <c r="F201" s="65"/>
     </row>
-    <row r="202" spans="1:6" ht="13.2">
+    <row r="202" spans="1:6" ht="12.75">
       <c r="A202" s="66"/>
       <c r="B202" s="67"/>
       <c r="C202" s="68"/>
@@ -35351,31 +35404,31 @@
       <c r="E202" s="68"/>
       <c r="F202" s="65"/>
     </row>
-    <row r="203" spans="1:6" ht="13.2">
-      <c r="A203" s="109"/>
-      <c r="B203" s="110"/>
-      <c r="C203" s="111"/>
-      <c r="D203" s="111"/>
-      <c r="E203" s="111"/>
+    <row r="203" spans="1:6" ht="12.75">
+      <c r="A203" s="128"/>
+      <c r="B203" s="129"/>
+      <c r="C203" s="121"/>
+      <c r="D203" s="121"/>
+      <c r="E203" s="121"/>
       <c r="F203" s="65"/>
     </row>
-    <row r="204" spans="1:6" ht="13.2">
-      <c r="A204" s="85"/>
-      <c r="B204" s="85"/>
-      <c r="C204" s="85"/>
-      <c r="D204" s="85"/>
-      <c r="E204" s="85"/>
+    <row r="204" spans="1:6" ht="12.75">
+      <c r="A204" s="100"/>
+      <c r="B204" s="100"/>
+      <c r="C204" s="100"/>
+      <c r="D204" s="100"/>
+      <c r="E204" s="100"/>
       <c r="F204" s="65"/>
     </row>
-    <row r="205" spans="1:6" ht="13.2">
-      <c r="A205" s="85"/>
-      <c r="B205" s="85"/>
-      <c r="C205" s="85"/>
-      <c r="D205" s="85"/>
-      <c r="E205" s="85"/>
+    <row r="205" spans="1:6" ht="12.75">
+      <c r="A205" s="100"/>
+      <c r="B205" s="100"/>
+      <c r="C205" s="100"/>
+      <c r="D205" s="100"/>
+      <c r="E205" s="100"/>
       <c r="F205" s="65"/>
     </row>
-    <row r="206" spans="1:6" ht="13.2">
+    <row r="206" spans="1:6" ht="12.75">
       <c r="A206" s="66"/>
       <c r="B206" s="67"/>
       <c r="C206" s="68"/>
@@ -35385,245 +35438,6 @@
     </row>
   </sheetData>
   <mergeCells count="254">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="E143:E145"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="E151:E153"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="E155:E157"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="E163:E165"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="E171:E173"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="E175:E177"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="E179:E181"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="D183:D185"/>
-    <mergeCell ref="E183:E185"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="D187:D189"/>
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="C191:C193"/>
-    <mergeCell ref="D191:D193"/>
-    <mergeCell ref="E191:E193"/>
     <mergeCell ref="A203:A205"/>
     <mergeCell ref="B203:B205"/>
     <mergeCell ref="C203:C205"/>
@@ -35639,6 +35453,245 @@
     <mergeCell ref="C199:C201"/>
     <mergeCell ref="D199:D201"/>
     <mergeCell ref="E199:E201"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="D187:D189"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="C191:C193"/>
+    <mergeCell ref="D191:D193"/>
+    <mergeCell ref="E191:E193"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="E179:E181"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="D183:D185"/>
+    <mergeCell ref="E183:E185"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="E171:E173"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="E175:E177"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="E163:E165"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="E155:E157"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="E151:E153"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="E143:E145"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
